--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -694,25 +694,25 @@
         <v>6.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R2" t="n">
         <v>1.73</v>
       </c>
       <c r="S2" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="T2" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U2" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="V2" t="n">
         <v>1.27</v>
@@ -721,10 +721,10 @@
         <v>2.26</v>
       </c>
       <c r="X2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,19 +733,19 @@
         <v>110</v>
       </c>
       <c r="AB2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC2" t="n">
         <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG2" t="n">
         <v>11.5</v>
@@ -760,16 +760,16 @@
         <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>32</v>
@@ -805,7 +805,7 @@
         <v>1.88</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H3" t="n">
         <v>3.9</v>
@@ -814,31 +814,31 @@
         <v>4.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="Q3" t="n">
         <v>1.66</v>
       </c>
       <c r="R3" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
         <v>2.66</v>
@@ -847,16 +847,16 @@
         <v>1.64</v>
       </c>
       <c r="U3" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="V3" t="n">
         <v>1.29</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="X3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
         <v>20</v>
@@ -1219,7 +1219,7 @@
         <v>3.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>3.55</v>
@@ -1366,10 +1366,10 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P7" t="n">
         <v>2.46</v>
@@ -1387,7 +1387,7 @@
         <v>1.78</v>
       </c>
       <c r="U7" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>70</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK7" t="n">
         <v>15</v>
@@ -1441,7 +1441,7 @@
         <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN7" t="n">
         <v>6.8</v>
@@ -1645,19 +1645,19 @@
         <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R9" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S9" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U9" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB9" t="n">
         <v>11</v>
@@ -1717,7 +1717,7 @@
         <v>18.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1789,7 +1789,7 @@
         <v>2.74</v>
       </c>
       <c r="T10" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U10" t="n">
         <v>2.02</v>
@@ -1825,13 +1825,13 @@
         <v>14</v>
       </c>
       <c r="AF10" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG10" t="n">
         <v>30</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
         <v>36</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -670,10 +670,10 @@
         <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I2" t="n">
         <v>4.7</v>
@@ -694,31 +694,31 @@
         <v>6.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P2" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S2" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="T2" t="n">
         <v>1.53</v>
       </c>
       <c r="U2" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="V2" t="n">
         <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -748,7 +748,7 @@
         <v>15.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
         <v>17</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AO2" t="n">
         <v>32</v>
@@ -805,7 +805,7 @@
         <v>1.88</v>
       </c>
       <c r="G3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H3" t="n">
         <v>3.9</v>
@@ -814,13 +814,13 @@
         <v>4.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K3" t="n">
         <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -829,13 +829,13 @@
         <v>4.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
         <v>2.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
         <v>1.5</v>
@@ -853,10 +853,10 @@
         <v>1.29</v>
       </c>
       <c r="W3" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y3" t="n">
         <v>20</v>
@@ -865,7 +865,7 @@
         <v>36</v>
       </c>
       <c r="AA3" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AB3" t="n">
         <v>14.5</v>
@@ -889,7 +889,7 @@
         <v>17.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ3" t="n">
         <v>23</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="n">
         <v>40</v>
@@ -1231,16 +1231,16 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P6" t="n">
         <v>1.92</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R6" t="n">
         <v>1.35</v>
@@ -1249,7 +1249,7 @@
         <v>3.65</v>
       </c>
       <c r="T6" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U6" t="n">
         <v>2.14</v>
@@ -1282,7 +1282,7 @@
         <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF6" t="n">
         <v>14.5</v>
@@ -1366,7 +1366,7 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O7" t="n">
         <v>1.21</v>
@@ -1381,7 +1381,7 @@
         <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T7" t="n">
         <v>1.78</v>
@@ -1615,7 +1615,7 @@
         <v>2.38</v>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
@@ -1639,7 +1639,7 @@
         <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
         <v>2.04</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y9" t="n">
         <v>13.5</v>
@@ -1687,7 +1687,7 @@
         <v>14</v>
       </c>
       <c r="AE9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF9" t="n">
         <v>16</v>
@@ -1753,10 +1753,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="I10" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="J10" t="n">
         <v>5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="H2" t="n">
         <v>4.6</v>
       </c>
       <c r="I2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J2" t="n">
         <v>4.6</v>
@@ -685,25 +685,25 @@
         <v>4.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.16</v>
       </c>
       <c r="P2" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="Q2" t="n">
         <v>1.48</v>
       </c>
       <c r="R2" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S2" t="n">
         <v>2.18</v>
@@ -712,10 +712,10 @@
         <v>1.53</v>
       </c>
       <c r="U2" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="V2" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W2" t="n">
         <v>2.3</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO2" t="n">
         <v>32</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="G3" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>4.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -829,10 +829,10 @@
         <v>4.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q3" t="n">
         <v>1.67</v>
@@ -844,7 +844,7 @@
         <v>2.66</v>
       </c>
       <c r="T3" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U3" t="n">
         <v>2.3</v>
@@ -853,7 +853,7 @@
         <v>1.29</v>
       </c>
       <c r="W3" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="X3" t="n">
         <v>24</v>
@@ -868,7 +868,7 @@
         <v>100</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC3" t="n">
         <v>10</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO3" t="n">
         <v>40</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G6" t="n">
         <v>2.3</v>
@@ -1240,7 +1240,7 @@
         <v>1.92</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R6" t="n">
         <v>1.35</v>
@@ -1249,7 +1249,7 @@
         <v>3.65</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U6" t="n">
         <v>2.14</v>
@@ -1264,7 +1264,7 @@
         <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z6" t="n">
         <v>25</v>
@@ -1282,7 +1282,7 @@
         <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF6" t="n">
         <v>14.5</v>
@@ -1303,7 +1303,7 @@
         <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="n">
         <v>95</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="G7" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H7" t="n">
         <v>6.6</v>
@@ -1354,10 +1354,10 @@
         <v>6.8</v>
       </c>
       <c r="J7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>1.66</v>
       </c>
       <c r="R7" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S7" t="n">
         <v>2.66</v>
@@ -1387,7 +1387,7 @@
         <v>1.78</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1399,13 +1399,13 @@
         <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z7" t="n">
         <v>60</v>
       </c>
       <c r="AA7" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AB7" t="n">
         <v>10.5</v>
@@ -1423,7 +1423,7 @@
         <v>10.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH7" t="n">
         <v>20</v>
@@ -1444,7 +1444,7 @@
         <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO7" t="n">
         <v>80</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q8" t="n">
         <v>1.44</v>
@@ -1618,10 +1618,10 @@
         <v>2.42</v>
       </c>
       <c r="H9" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.25</v>
       </c>
       <c r="J9" t="n">
         <v>3.65</v>
@@ -1642,10 +1642,10 @@
         <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R9" t="n">
         <v>1.41</v>
@@ -1717,7 +1717,7 @@
         <v>18.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1774,10 +1774,10 @@
         <v>5.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q10" t="n">
         <v>1.7</v>
@@ -1807,7 +1807,7 @@
         <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AA10" t="n">
         <v>12.5</v>
@@ -1822,7 +1822,7 @@
         <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF10" t="n">
         <v>75</v>
@@ -1831,7 +1831,7 @@
         <v>30</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
         <v>36</v>
@@ -1849,7 +1849,7 @@
         <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO10" t="n">
         <v>5.9</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G2" t="n">
         <v>1.76</v>
@@ -685,13 +685,13 @@
         <v>4.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.16</v>
@@ -700,19 +700,19 @@
         <v>2.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
         <v>1.75</v>
       </c>
       <c r="S2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U2" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="V2" t="n">
         <v>1.26</v>
@@ -733,7 +733,7 @@
         <v>110</v>
       </c>
       <c r="AB2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
         <v>12</v>
@@ -745,7 +745,7 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="G3" t="n">
         <v>1.98</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
         <v>4.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
         <v>1.31</v>
@@ -832,22 +832,22 @@
         <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q3" t="n">
         <v>1.67</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S3" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T3" t="n">
         <v>1.65</v>
       </c>
       <c r="U3" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V3" t="n">
         <v>1.29</v>
@@ -856,16 +856,16 @@
         <v>2.02</v>
       </c>
       <c r="X3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z3" t="n">
         <v>36</v>
       </c>
       <c r="AA3" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB3" t="n">
         <v>14</v>
@@ -889,7 +889,7 @@
         <v>17.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ3" t="n">
         <v>23</v>
@@ -898,16 +898,16 @@
         <v>19.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN3" t="n">
         <v>10.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L4" t="n">
         <v>1.01</v>
       </c>
-      <c r="G4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="M4" t="n">
         <v>1.01</v>
       </c>
-      <c r="I4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="O4" t="n">
         <v>1.01</v>
       </c>
-      <c r="K4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="Q4" t="n">
         <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G6" t="n">
         <v>2.3</v>
@@ -1219,10 +1219,10 @@
         <v>3.6</v>
       </c>
       <c r="J6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.55</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1231,28 +1231,28 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="O6" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P6" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="R6" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="T6" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="U6" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,10 +1261,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
         <v>25</v>
@@ -1273,7 +1273,7 @@
         <v>70</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC6" t="n">
         <v>7.6</v>
@@ -1285,31 +1285,31 @@
         <v>46</v>
       </c>
       <c r="AF6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI6" t="n">
         <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>40</v>
       </c>
       <c r="AM6" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO6" t="n">
         <v>55</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="G7" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="H7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I7" t="n">
         <v>6.6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.8</v>
       </c>
       <c r="J7" t="n">
         <v>4.7</v>
@@ -1366,28 +1366,28 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R7" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="S7" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="T7" t="n">
         <v>1.78</v>
       </c>
       <c r="U7" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1399,13 +1399,13 @@
         <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z7" t="n">
         <v>60</v>
       </c>
       <c r="AA7" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AB7" t="n">
         <v>10.5</v>
@@ -1423,19 +1423,19 @@
         <v>10.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>70</v>
       </c>
       <c r="AJ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK7" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>15</v>
       </c>
       <c r="AL7" t="n">
         <v>29</v>
@@ -1444,10 +1444,10 @@
         <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>4.7</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="G9" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="H9" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="J9" t="n">
         <v>3.65</v>
@@ -1636,28 +1636,28 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P9" t="n">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="T9" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="U9" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1675,22 +1675,22 @@
         <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
         <v>11.5</v>
@@ -1699,7 +1699,7 @@
         <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
         <v>32</v>
@@ -1708,16 +1708,16 @@
         <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="n">
         <v>80</v>
       </c>
       <c r="AN9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO9" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -1753,10 +1753,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="H10" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.47</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.48</v>
       </c>
       <c r="J10" t="n">
         <v>5</v>
@@ -1771,22 +1771,22 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q10" t="n">
         <v>1.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S10" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T10" t="n">
         <v>1.91</v>
@@ -1804,16 +1804,16 @@
         <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z10" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC10" t="n">
         <v>11.5</v>
@@ -1831,7 +1831,7 @@
         <v>30</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
         <v>36</v>
@@ -1852,7 +1852,7 @@
         <v>140</v>
       </c>
       <c r="AO10" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,7 +685,7 @@
         <v>4.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -697,13 +697,13 @@
         <v>1.16</v>
       </c>
       <c r="P2" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R2" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S2" t="n">
         <v>2.2</v>
@@ -712,7 +712,7 @@
         <v>1.54</v>
       </c>
       <c r="U2" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="V2" t="n">
         <v>1.26</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>32</v>
@@ -805,13 +805,13 @@
         <v>1.93</v>
       </c>
       <c r="G3" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J3" t="n">
         <v>3.95</v>
@@ -826,34 +826,34 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R3" t="n">
         <v>1.52</v>
       </c>
       <c r="S3" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U3" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X3" t="n">
         <v>23</v>
@@ -865,13 +865,13 @@
         <v>36</v>
       </c>
       <c r="AA3" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AB3" t="n">
         <v>14</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
         <v>18</v>
@@ -901,7 +901,7 @@
         <v>30</v>
       </c>
       <c r="AM3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
         <v>10.5</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,60 +923,60 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:35:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.02</v>
+        <v>1.67</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>2.08</v>
       </c>
       <c r="H4" t="n">
-        <v>1.02</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>1.17</v>
+        <v>1.83</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="R4" t="n">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="S4" t="n">
-        <v>1.39</v>
+        <v>2.46</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -985,10 +985,10 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="X4" t="n">
         <v>990</v>
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>09:35:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Faisaly ( KSA )</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L5" t="n">
         <v>1.01</v>
       </c>
-      <c r="G5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="M5" t="n">
         <v>1.01</v>
       </c>
-      <c r="I5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="N5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.01</v>
       </c>
-      <c r="K5" t="n">
-        <v>950</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="Q5" t="n">
         <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Al Faisaly ( KSA )</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>1.01</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>950</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.08</v>
       </c>
-      <c r="N6" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.33</v>
-      </c>
       <c r="S6" t="n">
-        <v>3.85</v>
+        <v>1.02</v>
       </c>
       <c r="T6" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1333,61 +1333,61 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.58</v>
+        <v>2.28</v>
       </c>
       <c r="G7" t="n">
-        <v>1.59</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>6.4</v>
+        <v>3.55</v>
       </c>
       <c r="I7" t="n">
-        <v>6.6</v>
+        <v>3.65</v>
       </c>
       <c r="J7" t="n">
-        <v>4.7</v>
+        <v>3.45</v>
       </c>
       <c r="K7" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>2.44</v>
+        <v>1.82</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.68</v>
+        <v>2.18</v>
       </c>
       <c r="R7" t="n">
-        <v>1.55</v>
+        <v>1.32</v>
       </c>
       <c r="S7" t="n">
-        <v>2.74</v>
+        <v>3.95</v>
       </c>
       <c r="T7" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="U7" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,64 +1396,64 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AA7" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN7" t="n">
         <v>21</v>
       </c>
-      <c r="AI7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>7</v>
-      </c>
       <c r="AO7" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,66 +1463,66 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="G8" t="n">
-        <v>2.12</v>
+        <v>1.58</v>
       </c>
       <c r="H8" t="n">
-        <v>3.45</v>
+        <v>6.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="K8" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,64 +1531,64 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,66 +1598,66 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="G9" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I9" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.97</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>1.52</v>
       </c>
       <c r="R9" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,58 +1666,58 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1738,120 +1738,255 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>Sunderland</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Man City</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="F11" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="H10" t="n">
+      <c r="G11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.46</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>1.47</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J11" t="n">
         <v>5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K11" t="n">
         <v>5.1</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
         <v>1.05</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N11" t="n">
         <v>5</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O11" t="n">
         <v>1.23</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P11" t="n">
         <v>2.36</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q11" t="n">
         <v>1.7</v>
       </c>
-      <c r="R10" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T10" t="n">
+      <c r="R11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.91</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U11" t="n">
         <v>2.02</v>
       </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>21</v>
       </c>
-      <c r="Y10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AA10" t="n">
+      <c r="Y11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA11" t="n">
         <v>13</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB11" t="n">
         <v>28</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC11" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD11" t="n">
         <v>10</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE11" t="n">
         <v>14.5</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF11" t="n">
         <v>75</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG11" t="n">
         <v>30</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH11" t="n">
         <v>23</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI11" t="n">
         <v>36</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ11" t="n">
         <v>260</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK11" t="n">
         <v>120</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL11" t="n">
         <v>100</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM11" t="n">
         <v>120</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN11" t="n">
         <v>140</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO11" t="n">
         <v>6.4</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,7 +736,7 @@
         <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
         <v>20</v>
@@ -757,10 +757,10 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
         <v>28</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AO2" t="n">
         <v>32</v>
@@ -868,7 +868,7 @@
         <v>85</v>
       </c>
       <c r="AB3" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AC3" t="n">
         <v>11</v>
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="G4" t="n">
         <v>2.08</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="S4" t="n">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="V4" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="W4" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="X4" t="n">
         <v>990</v>
       </c>
       <c r="Y4" t="n">
-        <v>990</v>
+        <v>24</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>990</v>
+        <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>990</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
         <v>990</v>
@@ -1018,7 +1018,7 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>990</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
         <v>990</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Faisaly ( KSA )</t>
+          <t>Llanelli Town</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1219,106 +1219,106 @@
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Al Faisaly ( KSA )</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.28</v>
+        <v>1.02</v>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>3.55</v>
+        <v>1.02</v>
       </c>
       <c r="I7" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>950</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.82</v>
+        <v>1.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.18</v>
+        <v>1.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>3.95</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1468,61 +1468,61 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.57</v>
+        <v>2.28</v>
       </c>
       <c r="G8" t="n">
-        <v>1.58</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>6.4</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
-        <v>6.6</v>
+        <v>3.65</v>
       </c>
       <c r="J8" t="n">
-        <v>4.7</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>5.2</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>2.44</v>
+        <v>1.82</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.68</v>
+        <v>2.18</v>
       </c>
       <c r="R8" t="n">
-        <v>1.55</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
-        <v>2.76</v>
+        <v>3.95</v>
       </c>
       <c r="T8" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="U8" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,64 +1531,64 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>27</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI8" t="n">
         <v>55</v>
       </c>
-      <c r="AA8" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AH8" t="n">
+      <c r="AJ8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN8" t="n">
         <v>21</v>
       </c>
-      <c r="AI8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>7</v>
-      </c>
       <c r="AO8" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,66 +1598,66 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="G9" t="n">
-        <v>2.12</v>
+        <v>1.58</v>
       </c>
       <c r="H9" t="n">
-        <v>3.45</v>
+        <v>6.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="K9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,64 +1666,64 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,66 +1733,66 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.28</v>
+        <v>1.91</v>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="H10" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I10" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.96</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.02</v>
+        <v>1.52</v>
       </c>
       <c r="R10" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,58 +1801,58 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1873,120 +1873,255 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>Sunderland</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Man City</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>8.4</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>1.46</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>1.47</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J12" t="n">
         <v>5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K12" t="n">
         <v>5.1</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>1.05</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N12" t="n">
         <v>5</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O12" t="n">
         <v>1.23</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>2.36</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q12" t="n">
         <v>1.7</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R12" t="n">
         <v>1.53</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S12" t="n">
         <v>2.8</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T12" t="n">
         <v>1.91</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U12" t="n">
         <v>2.02</v>
       </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>21</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y12" t="n">
         <v>9.4</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z12" t="n">
         <v>9</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA12" t="n">
         <v>13</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB12" t="n">
         <v>28</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC12" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD12" t="n">
         <v>10</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE12" t="n">
         <v>14.5</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF12" t="n">
         <v>75</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG12" t="n">
         <v>30</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH12" t="n">
         <v>23</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI12" t="n">
         <v>36</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ12" t="n">
         <v>260</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK12" t="n">
         <v>120</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL12" t="n">
         <v>100</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM12" t="n">
         <v>120</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN12" t="n">
         <v>140</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO12" t="n">
         <v>6.4</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -820,7 +820,7 @@
         <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
         <v>5.3</v>
@@ -964,7 +964,7 @@
         <v>4.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P4" t="n">
         <v>2.06</v>
@@ -988,7 +988,7 @@
         <v>1.24</v>
       </c>
       <c r="W4" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="X4" t="n">
         <v>990</v>
@@ -1219,7 +1219,7 @@
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="K6" t="n">
         <v>1000</v>
@@ -1366,13 +1366,13 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="Q7" t="n">
         <v>1.02</v>
@@ -1384,10 +1384,10 @@
         <v>1.36</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
         <v>1.01</v>
@@ -1495,16 +1495,16 @@
         <v>3.5</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P8" t="n">
         <v>1.82</v>
@@ -1513,7 +1513,7 @@
         <v>2.18</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S8" t="n">
         <v>3.95</v>
@@ -1525,10 +1525,10 @@
         <v>2.06</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="X8" t="n">
         <v>12.5</v>
@@ -1537,16 +1537,16 @@
         <v>12.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA8" t="n">
         <v>70</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
         <v>15</v>
@@ -1555,34 +1555,34 @@
         <v>46</v>
       </c>
       <c r="AF8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>18.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ8" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL8" t="n">
         <v>42</v>
       </c>
       <c r="AM8" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
         <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -1630,7 +1630,7 @@
         <v>4.8</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -1651,7 +1651,7 @@
         <v>1.54</v>
       </c>
       <c r="S9" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T9" t="n">
         <v>1.78</v>
@@ -1660,16 +1660,16 @@
         <v>2.24</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z9" t="n">
         <v>55</v>
@@ -1693,7 +1693,7 @@
         <v>10.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AH9" t="n">
         <v>19.5</v>
@@ -1702,7 +1702,7 @@
         <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK9" t="n">
         <v>14.5</v>
@@ -1711,7 +1711,7 @@
         <v>28</v>
       </c>
       <c r="AM9" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN9" t="n">
         <v>7</v>
@@ -1750,13 +1750,13 @@
         <v>1.91</v>
       </c>
       <c r="G10" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="J10" t="n">
         <v>3.95</v>
@@ -1765,16 +1765,16 @@
         <v>4.7</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
         <v>2.5</v>
@@ -1783,76 +1783,76 @@
         <v>1.52</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1906,13 +1906,13 @@
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q11" t="n">
         <v>2.04</v>
@@ -1969,13 +1969,13 @@
         <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
         <v>32</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
         <v>38</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
         <v>8.4</v>
@@ -2056,10 +2056,10 @@
         <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T12" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U12" t="n">
         <v>2.02</v>
@@ -2086,7 +2086,7 @@
         <v>28</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
         <v>10</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -826,13 +826,13 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O3" t="n">
         <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q3" t="n">
         <v>1.68</v>
@@ -868,10 +868,10 @@
         <v>85</v>
       </c>
       <c r="AB3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
         <v>18</v>
@@ -880,10 +880,10 @@
         <v>48</v>
       </c>
       <c r="AF3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>17.5</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO3" t="n">
         <v>38</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>1.3</v>
       </c>
       <c r="J6" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
         <v>3.65</v>
@@ -1525,7 +1525,7 @@
         <v>2.06</v>
       </c>
       <c r="V8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W8" t="n">
         <v>1.76</v>
@@ -1537,7 +1537,7 @@
         <v>12.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
         <v>70</v>
@@ -1633,7 +1633,7 @@
         <v>1.32</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
         <v>5.1</v>
@@ -1642,19 +1642,19 @@
         <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R9" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S9" t="n">
         <v>2.74</v>
       </c>
       <c r="T9" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U9" t="n">
         <v>2.24</v>
@@ -1666,7 +1666,7 @@
         <v>2.72</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
         <v>26</v>
@@ -1675,7 +1675,7 @@
         <v>55</v>
       </c>
       <c r="AA9" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB9" t="n">
         <v>10.5</v>
@@ -1693,7 +1693,7 @@
         <v>10.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH9" t="n">
         <v>19.5</v>
@@ -1711,7 +1711,7 @@
         <v>28</v>
       </c>
       <c r="AM9" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN9" t="n">
         <v>7</v>
@@ -1750,7 +1750,7 @@
         <v>1.91</v>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H10" t="n">
         <v>3.5</v>
@@ -1759,7 +1759,7 @@
         <v>4.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
         <v>4.7</v>
@@ -1783,16 +1783,16 @@
         <v>1.52</v>
       </c>
       <c r="R10" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V10" t="n">
         <v>1.27</v>
@@ -1900,7 +1900,7 @@
         <v>3.7</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -1912,7 +1912,7 @@
         <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q11" t="n">
         <v>2.04</v>
@@ -1924,16 +1924,16 @@
         <v>3.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U11" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="X11" t="n">
         <v>14.5</v>
@@ -1945,46 +1945,46 @@
         <v>23</v>
       </c>
       <c r="AA11" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB11" t="n">
         <v>10</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
         <v>40</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL11" t="n">
         <v>38</v>
       </c>
       <c r="AM11" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO11" t="n">
         <v>38</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G12" t="n">
         <v>8.4</v>
@@ -2035,7 +2035,7 @@
         <v>5.1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2065,25 +2065,25 @@
         <v>2.02</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X12" t="n">
         <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
         <v>11</v>
@@ -2092,25 +2092,25 @@
         <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF12" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH12" t="n">
         <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ12" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AK12" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL12" t="n">
         <v>100</v>
@@ -2119,7 +2119,7 @@
         <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AO12" t="n">
         <v>6.4</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -709,7 +709,7 @@
         <v>2.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U2" t="n">
         <v>2.68</v>
@@ -739,7 +739,7 @@
         <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -754,7 +754,7 @@
         <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ2" t="n">
         <v>20</v>
@@ -763,7 +763,7 @@
         <v>19</v>
       </c>
       <c r="AL2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>6.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="G3" t="n">
         <v>1.96</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
         <v>4.3</v>
@@ -829,7 +829,7 @@
         <v>4.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P3" t="n">
         <v>2.32</v>
@@ -838,7 +838,7 @@
         <v>1.68</v>
       </c>
       <c r="R3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>2.7</v>
@@ -871,7 +871,7 @@
         <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
         <v>18</v>
@@ -955,13 +955,13 @@
         <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.26</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="I6" t="n">
         <v>1.3</v>
@@ -1483,10 +1483,10 @@
         <v>2.32</v>
       </c>
       <c r="H8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I8" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.65</v>
       </c>
       <c r="J8" t="n">
         <v>3.45</v>
@@ -1504,7 +1504,7 @@
         <v>3.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
         <v>1.82</v>
@@ -1522,7 +1522,7 @@
         <v>1.89</v>
       </c>
       <c r="U8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V8" t="n">
         <v>1.38</v>
@@ -1543,7 +1543,7 @@
         <v>70</v>
       </c>
       <c r="AB8" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC8" t="n">
         <v>7.4</v>
@@ -1555,19 +1555,19 @@
         <v>46</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
         <v>60</v>
       </c>
       <c r="AJ8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK8" t="n">
         <v>25</v>
@@ -1576,7 +1576,7 @@
         <v>42</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
         <v>21</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G9" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="H9" t="n">
         <v>6.4</v>
@@ -1636,40 +1636,40 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R9" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S9" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="T9" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="U9" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V9" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W9" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z9" t="n">
         <v>55</v>
@@ -1693,16 +1693,16 @@
         <v>10.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AH9" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
         <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
         <v>14.5</v>
@@ -1711,7 +1711,7 @@
         <v>28</v>
       </c>
       <c r="AM9" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN9" t="n">
         <v>7</v>
@@ -1756,10 +1756,10 @@
         <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
         <v>4.7</v>
@@ -1795,7 +1795,7 @@
         <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W10" t="n">
         <v>1.9</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G11" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H11" t="n">
         <v>3.35</v>
@@ -1912,7 +1912,7 @@
         <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q11" t="n">
         <v>2.04</v>
@@ -1924,16 +1924,16 @@
         <v>3.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U11" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V11" t="n">
         <v>1.42</v>
       </c>
       <c r="W11" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="X11" t="n">
         <v>14.5</v>
@@ -1948,7 +1948,7 @@
         <v>60</v>
       </c>
       <c r="AB11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC11" t="n">
         <v>7.6</v>
@@ -1984,7 +1984,7 @@
         <v>90</v>
       </c>
       <c r="AN11" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO11" t="n">
         <v>38</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="G12" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="H12" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="I12" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K12" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.31</v>
@@ -2059,28 +2059,28 @@
         <v>2.78</v>
       </c>
       <c r="T12" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U12" t="n">
         <v>2.02</v>
       </c>
       <c r="V12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="W12" t="n">
         <v>1.13</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z12" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AA12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB12" t="n">
         <v>29</v>
@@ -2092,37 +2092,37 @@
         <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
         <v>32</v>
       </c>
       <c r="AJ12" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AK12" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AL12" t="n">
         <v>100</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
         <v>120</v>
       </c>
       <c r="AO12" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -721,13 +721,13 @@
         <v>2.3</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y2" t="n">
         <v>28</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA2" t="n">
         <v>110</v>
@@ -736,43 +736,43 @@
         <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="n">
         <v>20</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO2" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="G4" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I4" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="R4" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T4" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="U4" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="V4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W4" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="X4" t="n">
         <v>990</v>
       </c>
       <c r="Y4" t="n">
-        <v>24</v>
+        <v>990</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,13 +1003,13 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1018,10 +1018,10 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="H6" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="I6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="K6" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G8" t="n">
         <v>2.3</v>
       </c>
-      <c r="G8" t="n">
-        <v>2.32</v>
-      </c>
       <c r="H8" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J8" t="n">
         <v>3.45</v>
@@ -1501,19 +1501,19 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
         <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q8" t="n">
         <v>2.18</v>
       </c>
       <c r="R8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
         <v>3.95</v>
@@ -1525,10 +1525,10 @@
         <v>2.08</v>
       </c>
       <c r="V8" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W8" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="X8" t="n">
         <v>12.5</v>
@@ -1555,7 +1555,7 @@
         <v>46</v>
       </c>
       <c r="AF8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
@@ -1636,28 +1636,28 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O9" t="n">
         <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q9" t="n">
         <v>1.65</v>
       </c>
       <c r="R9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
         <v>2.68</v>
       </c>
       <c r="T9" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U9" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V9" t="n">
         <v>1.18</v>
@@ -1693,7 +1693,7 @@
         <v>10.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH9" t="n">
         <v>19</v>
@@ -1756,10 +1756,10 @@
         <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="K10" t="n">
         <v>4.7</v>
@@ -1795,7 +1795,7 @@
         <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="W10" t="n">
         <v>1.9</v>
@@ -1912,7 +1912,7 @@
         <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q11" t="n">
         <v>2.04</v>
@@ -1924,7 +1924,7 @@
         <v>3.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U11" t="n">
         <v>2.14</v>
@@ -2023,10 +2023,10 @@
         <v>8.6</v>
       </c>
       <c r="H12" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I12" t="n">
         <v>1.44</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.45</v>
       </c>
       <c r="J12" t="n">
         <v>5.2</v>
@@ -2059,13 +2059,13 @@
         <v>2.78</v>
       </c>
       <c r="T12" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W12" t="n">
         <v>1.13</v>
@@ -2077,19 +2077,19 @@
         <v>9.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AA12" t="n">
         <v>12</v>
       </c>
       <c r="AB12" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC12" t="n">
         <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE12" t="n">
         <v>14.5</v>
@@ -2107,7 +2107,7 @@
         <v>32</v>
       </c>
       <c r="AJ12" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AK12" t="n">
         <v>120</v>
@@ -2122,7 +2122,7 @@
         <v>120</v>
       </c>
       <c r="AO12" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
         <v>1.76</v>
@@ -697,22 +697,22 @@
         <v>1.16</v>
       </c>
       <c r="P2" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R2" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T2" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="U2" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="V2" t="n">
         <v>1.26</v>
@@ -754,7 +754,7 @@
         <v>15.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="n">
         <v>20</v>
@@ -826,7 +826,7 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O3" t="n">
         <v>1.23</v>
@@ -835,16 +835,16 @@
         <v>2.32</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
         <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T3" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U3" t="n">
         <v>2.38</v>
@@ -856,16 +856,16 @@
         <v>2.04</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z3" t="n">
         <v>36</v>
       </c>
       <c r="AA3" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AB3" t="n">
         <v>12</v>
@@ -889,7 +889,7 @@
         <v>17.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AJ3" t="n">
         <v>23</v>
@@ -898,16 +898,16 @@
         <v>19.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN3" t="n">
         <v>10</v>
       </c>
       <c r="AO3" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -994,7 +994,7 @@
         <v>990</v>
       </c>
       <c r="Y4" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1072,46 +1072,46 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.02</v>
+        <v>1.45</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>1.02</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.17</v>
+        <v>2.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.17</v>
+        <v>1.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
       <c r="S5" t="n">
-        <v>1.39</v>
+        <v>2.62</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1123,7 +1123,7 @@
         <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="X5" t="n">
         <v>990</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="G6" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="J6" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="K6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.02</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>1000</v>
@@ -1351,10 +1351,10 @@
         <v>1.02</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.02</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
         <v>950</v>
@@ -1366,19 +1366,19 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="Q7" t="n">
         <v>1.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -1390,7 +1390,7 @@
         <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="W7" t="n">
         <v>1.01</v>
@@ -1510,13 +1510,13 @@
         <v>1.83</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S8" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
         <v>1.89</v>
@@ -1654,7 +1654,7 @@
         <v>2.68</v>
       </c>
       <c r="T9" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U9" t="n">
         <v>2.24</v>
@@ -1693,7 +1693,7 @@
         <v>10.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AH9" t="n">
         <v>19</v>
@@ -1702,7 +1702,7 @@
         <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK9" t="n">
         <v>14.5</v>
@@ -1915,7 +1915,7 @@
         <v>1.94</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R11" t="n">
         <v>1.36</v>
@@ -1948,7 +1948,7 @@
         <v>60</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC11" t="n">
         <v>7.6</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="G12" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>1.43</v>
@@ -2041,7 +2041,7 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O12" t="n">
         <v>1.23</v>
@@ -2059,7 +2059,7 @@
         <v>2.78</v>
       </c>
       <c r="T12" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U12" t="n">
         <v>2</v>
@@ -2068,7 +2068,7 @@
         <v>3.25</v>
       </c>
       <c r="W12" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="X12" t="n">
         <v>22</v>
@@ -2077,7 +2077,7 @@
         <v>9.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AA12" t="n">
         <v>12</v>
@@ -2119,7 +2119,7 @@
         <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AO12" t="n">
         <v>6</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="G2" t="n">
         <v>1.76</v>
@@ -691,25 +691,25 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="Q2" t="n">
         <v>1.47</v>
       </c>
       <c r="R2" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="S2" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="T2" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U2" t="n">
         <v>2.7</v>
@@ -766,13 +766,13 @@
         <v>24</v>
       </c>
       <c r="AM2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN2" t="n">
         <v>6.8</v>
       </c>
       <c r="AO2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -814,40 +814,40 @@
         <v>4.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O3" t="n">
         <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S3" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T3" t="n">
         <v>1.65</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V3" t="n">
         <v>1.3</v>
@@ -865,7 +865,7 @@
         <v>36</v>
       </c>
       <c r="AA3" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB3" t="n">
         <v>12</v>
@@ -898,13 +898,13 @@
         <v>19.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM3" t="n">
         <v>75</v>
       </c>
       <c r="AN3" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AO3" t="n">
         <v>40</v>
@@ -943,7 +943,7 @@
         <v>1.95</v>
       </c>
       <c r="H4" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
         <v>5.1</v>
@@ -964,13 +964,13 @@
         <v>4.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
         <v>2.22</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R4" t="n">
         <v>1.48</v>
@@ -982,7 +982,7 @@
         <v>1.65</v>
       </c>
       <c r="U4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V4" t="n">
         <v>1.25</v>
@@ -1063,73 +1063,73 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Al-Zulfi SC</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>3.05</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>2.66</v>
       </c>
       <c r="K5" t="n">
-        <v>9</v>
+        <v>5.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.7</v>
+        <v>1.51</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="S5" t="n">
-        <v>2.62</v>
+        <v>2.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="W5" t="n">
-        <v>2.16</v>
+        <v>1.48</v>
       </c>
       <c r="X5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,13 +1138,13 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1153,10 +1153,10 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>09:35:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Llanelli Town</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>13.5</v>
+        <v>1.46</v>
       </c>
       <c r="G6" t="n">
-        <v>19.5</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="I6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L6" t="n">
         <v>1.31</v>
       </c>
-      <c r="J6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al Faisaly ( KSA )</t>
+          <t>Llanelli Town</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="H7" t="n">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
       <c r="I7" t="n">
-        <v>5.1</v>
+        <v>1.31</v>
       </c>
       <c r="J7" t="n">
-        <v>2.6</v>
+        <v>6.4</v>
       </c>
       <c r="K7" t="n">
-        <v>950</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Al Faisaly ( KSA )</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.28</v>
+        <v>2.06</v>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>3.65</v>
+        <v>1.01</v>
       </c>
       <c r="I8" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>2.66</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>950</v>
       </c>
       <c r="L8" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>3.55</v>
+        <v>1.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.16</v>
+        <v>1.02</v>
       </c>
       <c r="R8" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>1.38</v>
       </c>
       <c r="T8" t="n">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
       <c r="U8" t="n">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.58</v>
+        <v>2.28</v>
       </c>
       <c r="G9" t="n">
-        <v>1.59</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>6.4</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>6.6</v>
+        <v>3.65</v>
       </c>
       <c r="J9" t="n">
-        <v>4.7</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.32</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.57</v>
-      </c>
       <c r="S9" t="n">
-        <v>2.68</v>
+        <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.77</v>
+        <v>1.89</v>
       </c>
       <c r="U9" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="W9" t="n">
-        <v>2.7</v>
+        <v>1.76</v>
       </c>
       <c r="X9" t="n">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>27</v>
+        <v>12.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="AF9" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
         <v>19</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="AK9" t="n">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AM9" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.91</v>
+        <v>1.58</v>
       </c>
       <c r="G10" t="n">
-        <v>2.12</v>
+        <v>1.59</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>6.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="K10" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>1.9</v>
+        <v>2.68</v>
       </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="U10" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="V10" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="W10" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.32</v>
+        <v>1.91</v>
       </c>
       <c r="G11" t="n">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>1.94</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.02</v>
+        <v>1.52</v>
       </c>
       <c r="R11" t="n">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="S11" t="n">
-        <v>3.6</v>
+        <v>2.12</v>
       </c>
       <c r="T11" t="n">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="U11" t="n">
-        <v>2.14</v>
+        <v>2.48</v>
       </c>
       <c r="V11" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="W11" t="n">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="X11" t="n">
-        <v>14.5</v>
+        <v>32</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Z11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK11" t="n">
         <v>23</v>
       </c>
-      <c r="AA11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG11" t="n">
+      <c r="AL11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN11" t="n">
         <v>11</v>
       </c>
-      <c r="AH11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AO11" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -2008,120 +2008,255 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>Sunderland</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Man City</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F13" t="n">
         <v>8.6</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>1.43</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>1.44</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J13" t="n">
         <v>5.2</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K13" t="n">
         <v>5.3</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L13" t="n">
         <v>1.31</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M13" t="n">
         <v>1.05</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N13" t="n">
         <v>5.1</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O13" t="n">
         <v>1.23</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P13" t="n">
         <v>2.36</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q13" t="n">
         <v>1.7</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R13" t="n">
         <v>1.53</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S13" t="n">
         <v>2.78</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T13" t="n">
         <v>1.95</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U13" t="n">
         <v>2</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V13" t="n">
         <v>3.25</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W13" t="n">
         <v>1.12</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X13" t="n">
         <v>22</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y13" t="n">
         <v>9.4</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z13" t="n">
         <v>8.6</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA13" t="n">
         <v>12</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB13" t="n">
         <v>32</v>
       </c>
-      <c r="AC12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD12" t="n">
+      <c r="AC13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD13" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE13" t="n">
         <v>14.5</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF13" t="n">
         <v>75</v>
       </c>
-      <c r="AG12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI12" t="n">
+      <c r="AG13" t="n">
         <v>32</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AH13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>260</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK13" t="n">
         <v>120</v>
       </c>
-      <c r="AL12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM12" t="n">
+      <c r="AL13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM13" t="n">
         <v>130</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN13" t="n">
         <v>130</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO13" t="n">
         <v>6</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.74</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.76</v>
-      </c>
       <c r="H2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I2" t="n">
         <v>4.8</v>
@@ -700,40 +700,40 @@
         <v>2.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="R2" t="n">
         <v>1.79</v>
       </c>
       <c r="S2" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="T2" t="n">
         <v>1.55</v>
       </c>
       <c r="U2" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="V2" t="n">
         <v>1.26</v>
       </c>
       <c r="W2" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="X2" t="n">
         <v>29</v>
       </c>
       <c r="Y2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="n">
         <v>44</v>
       </c>
       <c r="AA2" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC2" t="n">
         <v>11.5</v>
@@ -757,22 +757,22 @@
         <v>44</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL2" t="n">
         <v>24</v>
       </c>
       <c r="AM2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G3" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
         <v>4.3</v>
@@ -841,7 +841,7 @@
         <v>1.54</v>
       </c>
       <c r="S3" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="T3" t="n">
         <v>1.65</v>
@@ -853,7 +853,7 @@
         <v>1.3</v>
       </c>
       <c r="W3" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X3" t="n">
         <v>24</v>
@@ -871,7 +871,7 @@
         <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
         <v>18</v>
@@ -895,7 +895,7 @@
         <v>23</v>
       </c>
       <c r="AK3" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL3" t="n">
         <v>30</v>
@@ -970,7 +970,7 @@
         <v>2.22</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R4" t="n">
         <v>1.48</v>
@@ -979,10 +979,10 @@
         <v>2.64</v>
       </c>
       <c r="T4" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U4" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V4" t="n">
         <v>1.25</v>
@@ -1093,7 +1093,7 @@
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
         <v>1.51</v>
@@ -1108,7 +1108,7 @@
         <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S5" t="n">
         <v>2.1</v>
@@ -1228,13 +1228,13 @@
         <v>1.31</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
         <v>2.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P6" t="n">
         <v>1.72</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="G7" t="n">
         <v>21</v>
@@ -1351,10 +1351,10 @@
         <v>1.19</v>
       </c>
       <c r="I7" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="J7" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="K7" t="n">
         <v>8.800000000000001</v>
@@ -1498,19 +1498,19 @@
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
         <v>1.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P8" t="n">
         <v>1.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.02</v>
+        <v>1.37</v>
       </c>
       <c r="R8" t="n">
         <v>1.18</v>
@@ -1642,7 +1642,7 @@
         <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q9" t="n">
         <v>2.16</v>
@@ -1657,7 +1657,7 @@
         <v>1.89</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
         <v>1.37</v>
@@ -1696,7 +1696,7 @@
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI9" t="n">
         <v>60</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.58</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.59</v>
       </c>
       <c r="H10" t="n">
         <v>6.4</v>
@@ -1780,7 +1780,7 @@
         <v>2.48</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R10" t="n">
         <v>1.57</v>
@@ -1795,13 +1795,13 @@
         <v>2.24</v>
       </c>
       <c r="V10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W10" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
         <v>27</v>
@@ -1897,10 +1897,10 @@
         <v>3.9</v>
       </c>
       <c r="K11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
@@ -1909,22 +1909,22 @@
         <v>5.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S11" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U11" t="n">
         <v>2.48</v>
@@ -2023,7 +2023,7 @@
         <v>2.34</v>
       </c>
       <c r="H12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
         <v>3.4</v>
@@ -2044,7 +2044,7 @@
         <v>3.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
         <v>1.96</v>
@@ -2062,7 +2062,7 @@
         <v>1.8</v>
       </c>
       <c r="U12" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
         <v>1.42</v>
@@ -2107,7 +2107,7 @@
         <v>48</v>
       </c>
       <c r="AJ12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK12" t="n">
         <v>25</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="H13" t="n">
         <v>1.43</v>
@@ -2197,7 +2197,7 @@
         <v>1.95</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V13" t="n">
         <v>3.25</v>
@@ -2230,13 +2230,13 @@
         <v>14.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG13" t="n">
         <v>32</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI13" t="n">
         <v>32</v>
@@ -2257,7 +2257,7 @@
         <v>130</v>
       </c>
       <c r="AO13" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -670,7 +670,7 @@
         <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
         <v>4.7</v>
@@ -691,37 +691,37 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="Q2" t="n">
         <v>1.46</v>
       </c>
       <c r="R2" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="S2" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="T2" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U2" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="V2" t="n">
         <v>1.26</v>
       </c>
       <c r="W2" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="X2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y2" t="n">
         <v>29</v>
@@ -766,13 +766,13 @@
         <v>24</v>
       </c>
       <c r="AM2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN2" t="n">
         <v>6.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G3" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="H3" t="n">
         <v>4.2</v>
@@ -814,61 +814,61 @@
         <v>4.3</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.31</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="Q3" t="n">
         <v>1.66</v>
       </c>
       <c r="R3" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S3" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="T3" t="n">
         <v>1.65</v>
       </c>
       <c r="U3" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V3" t="n">
         <v>1.3</v>
       </c>
       <c r="W3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="n">
         <v>36</v>
       </c>
       <c r="AA3" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
         <v>10</v>
@@ -877,7 +877,7 @@
         <v>18</v>
       </c>
       <c r="AE3" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF3" t="n">
         <v>14</v>
@@ -889,25 +889,25 @@
         <v>17.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AJ3" t="n">
         <v>23</v>
       </c>
       <c r="AK3" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
         <v>30</v>
       </c>
       <c r="AM3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -955,7 +955,7 @@
         <v>5.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1093,13 +1093,13 @@
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
         <v>1.51</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="P5" t="n">
         <v>1.51</v>
@@ -1234,7 +1234,7 @@
         <v>2.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P6" t="n">
         <v>1.72</v>
@@ -1345,19 +1345,19 @@
         <v>14.5</v>
       </c>
       <c r="G7" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="J7" t="n">
         <v>7.2</v>
       </c>
       <c r="K7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
         <v>1.1</v>
@@ -1654,7 +1654,7 @@
         <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U9" t="n">
         <v>2.06</v>
@@ -1756,7 +1756,7 @@
         <v>6.4</v>
       </c>
       <c r="I10" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J10" t="n">
         <v>4.7</v>
@@ -1777,19 +1777,19 @@
         <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" t="n">
         <v>1.65</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S10" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T10" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U10" t="n">
         <v>2.24</v>
@@ -1804,7 +1804,7 @@
         <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z10" t="n">
         <v>55</v>
@@ -1840,7 +1840,7 @@
         <v>14.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL10" t="n">
         <v>28</v>
@@ -1849,10 +1849,10 @@
         <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO10" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -1924,7 +1924,7 @@
         <v>2.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U11" t="n">
         <v>2.48</v>
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="I12" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L12" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2047,13 +2047,13 @@
         <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S12" t="n">
         <v>3.6</v>
@@ -2065,37 +2065,37 @@
         <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="X12" t="n">
         <v>14.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA12" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AF12" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
@@ -2104,13 +2104,13 @@
         <v>17.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
         <v>38</v>
@@ -2119,10 +2119,10 @@
         <v>90</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -2191,13 +2191,13 @@
         <v>1.53</v>
       </c>
       <c r="S13" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T13" t="n">
         <v>1.95</v>
       </c>
       <c r="U13" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>3.25</v>
@@ -2215,19 +2215,19 @@
         <v>8.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC13" t="n">
         <v>11.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF13" t="n">
         <v>80</v>
@@ -2236,7 +2236,7 @@
         <v>32</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
         <v>32</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -670,7 +670,7 @@
         <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H2" t="n">
         <v>4.7</v>
@@ -682,7 +682,7 @@
         <v>4.6</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.24</v>
@@ -697,40 +697,40 @@
         <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R2" t="n">
         <v>1.83</v>
       </c>
       <c r="S2" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U2" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="V2" t="n">
         <v>1.26</v>
       </c>
       <c r="W2" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="n">
         <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AB2" t="n">
         <v>15.5</v>
@@ -742,7 +742,7 @@
         <v>19</v>
       </c>
       <c r="AE2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF2" t="n">
         <v>14.5</v>
@@ -757,7 +757,7 @@
         <v>44</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
         <v>15.5</v>
@@ -769,10 +769,10 @@
         <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G3" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H3" t="n">
         <v>4.2</v>
@@ -826,7 +826,7 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
@@ -841,64 +841,64 @@
         <v>1.56</v>
       </c>
       <c r="S3" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="T3" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U3" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V3" t="n">
         <v>1.3</v>
       </c>
       <c r="W3" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X3" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
         <v>85</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC3" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG3" t="n">
         <v>10</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AH3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK3" t="n">
         <v>18</v>
       </c>
-      <c r="AE3" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>19</v>
-      </c>
       <c r="AL3" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AM3" t="n">
         <v>70</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G4" t="n">
         <v>1.95</v>
@@ -952,7 +952,7 @@
         <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.27</v>
@@ -970,7 +970,7 @@
         <v>2.22</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R4" t="n">
         <v>1.48</v>
@@ -1096,7 +1096,7 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>1.51</v>
+        <v>2.38</v>
       </c>
       <c r="O5" t="n">
         <v>1.07</v>
@@ -1108,16 +1108,16 @@
         <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="S5" t="n">
-        <v>2.1</v>
+        <v>3.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
         <v>1.31</v>
@@ -1492,7 +1492,7 @@
         <v>2.66</v>
       </c>
       <c r="K8" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1618,10 +1618,10 @@
         <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J9" t="n">
         <v>3.45</v>
@@ -1654,16 +1654,16 @@
         <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
         <v>1.37</v>
       </c>
       <c r="W9" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="X9" t="n">
         <v>12.5</v>
@@ -1672,7 +1672,7 @@
         <v>12.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA9" t="n">
         <v>70</v>
@@ -1702,7 +1702,7 @@
         <v>60</v>
       </c>
       <c r="AJ9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK9" t="n">
         <v>25</v>
@@ -1714,7 +1714,7 @@
         <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="n">
         <v>48</v>
@@ -1753,7 +1753,7 @@
         <v>1.58</v>
       </c>
       <c r="H10" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I10" t="n">
         <v>6.8</v>
@@ -1789,28 +1789,28 @@
         <v>2.66</v>
       </c>
       <c r="T10" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U10" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V10" t="n">
         <v>1.17</v>
       </c>
       <c r="W10" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z10" t="n">
         <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AB10" t="n">
         <v>10.5</v>
@@ -1819,7 +1819,7 @@
         <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
         <v>70</v>
@@ -1828,7 +1828,7 @@
         <v>10.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AH10" t="n">
         <v>19</v>
@@ -1840,7 +1840,7 @@
         <v>14.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL10" t="n">
         <v>28</v>
@@ -1852,7 +1852,7 @@
         <v>6.8</v>
       </c>
       <c r="AO10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -1888,7 +1888,7 @@
         <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
         <v>4.1</v>
@@ -1900,7 +1900,7 @@
         <v>4.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
@@ -1909,7 +1909,7 @@
         <v>5.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
         <v>2.52</v>
@@ -1924,10 +1924,10 @@
         <v>2.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U11" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V11" t="n">
         <v>1.32</v>
@@ -2017,46 +2017,46 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="G12" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H12" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P12" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T12" t="n">
         <v>1.8</v>
@@ -2065,37 +2065,37 @@
         <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="W12" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="X12" t="n">
         <v>14.5</v>
       </c>
       <c r="Y12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF12" t="n">
         <v>14</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>12.5</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
@@ -2104,7 +2104,7 @@
         <v>17.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ12" t="n">
         <v>27</v>
@@ -2113,16 +2113,16 @@
         <v>22</v>
       </c>
       <c r="AL12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="n">
         <v>90</v>
       </c>
       <c r="AN12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -2188,7 +2188,7 @@
         <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S13" t="n">
         <v>2.76</v>
@@ -2218,7 +2218,7 @@
         <v>11.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC13" t="n">
         <v>11.5</v>
@@ -2236,13 +2236,13 @@
         <v>32</v>
       </c>
       <c r="AH13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI13" t="n">
         <v>32</v>
       </c>
       <c r="AJ13" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="AK13" t="n">
         <v>120</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G2" t="n">
         <v>1.74</v>
@@ -682,7 +682,7 @@
         <v>4.6</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.24</v>
@@ -694,25 +694,25 @@
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
         <v>3.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R2" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S2" t="n">
         <v>2.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="U2" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="V2" t="n">
         <v>1.26</v>
@@ -724,7 +724,7 @@
         <v>32</v>
       </c>
       <c r="Y2" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z2" t="n">
         <v>46</v>
@@ -733,16 +733,16 @@
         <v>110</v>
       </c>
       <c r="AB2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC2" t="n">
         <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF2" t="n">
         <v>14.5</v>
@@ -754,22 +754,22 @@
         <v>15.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK2" t="n">
         <v>15.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM2" t="n">
         <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
@@ -808,7 +808,7 @@
         <v>1.93</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
         <v>4.3</v>
@@ -826,28 +826,28 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q3" t="n">
         <v>1.66</v>
       </c>
       <c r="R3" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="S3" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T3" t="n">
         <v>1.64</v>
       </c>
       <c r="U3" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V3" t="n">
         <v>1.3</v>
@@ -856,7 +856,7 @@
         <v>2.06</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="n">
         <v>20</v>
@@ -904,10 +904,10 @@
         <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G4" t="n">
         <v>1.95</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J4" t="n">
         <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.27</v>
@@ -970,10 +970,10 @@
         <v>2.22</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S4" t="n">
         <v>2.64</v>
@@ -982,10 +982,10 @@
         <v>1.66</v>
       </c>
       <c r="U4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V4" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W4" t="n">
         <v>2.04</v>
@@ -1075,10 +1075,10 @@
         <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="I5" t="n">
         <v>4.2</v>
@@ -1087,7 +1087,7 @@
         <v>2.66</v>
       </c>
       <c r="K5" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1102,10 +1102,10 @@
         <v>1.07</v>
       </c>
       <c r="P5" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
         <v>1.15</v>
@@ -1123,7 +1123,7 @@
         <v>1.31</v>
       </c>
       <c r="W5" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1213,7 +1213,7 @@
         <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I6" t="n">
         <v>1000</v>
@@ -1222,7 +1222,7 @@
         <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.31</v>
@@ -1231,19 +1231,19 @@
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="O6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P6" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="R6" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S6" t="n">
         <v>2.62</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="G7" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="H7" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="I7" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="J7" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="K7" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="H9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J9" t="n">
         <v>3.45</v>
@@ -1642,7 +1642,7 @@
         <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q9" t="n">
         <v>2.16</v>
@@ -1657,13 +1657,13 @@
         <v>1.89</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W9" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="X9" t="n">
         <v>12.5</v>
@@ -1687,7 +1687,7 @@
         <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF9" t="n">
         <v>13</v>
@@ -1696,7 +1696,7 @@
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
         <v>60</v>
@@ -1705,7 +1705,7 @@
         <v>28</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
         <v>42</v>
@@ -1717,7 +1717,7 @@
         <v>20</v>
       </c>
       <c r="AO9" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -1789,10 +1789,10 @@
         <v>2.66</v>
       </c>
       <c r="T10" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U10" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V10" t="n">
         <v>1.17</v>
@@ -1801,10 +1801,10 @@
         <v>2.74</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z10" t="n">
         <v>55</v>
@@ -1819,7 +1819,7 @@
         <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
         <v>70</v>
@@ -1831,7 +1831,7 @@
         <v>9.6</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI10" t="n">
         <v>70</v>
@@ -1843,16 +1843,16 @@
         <v>14.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM10" t="n">
         <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -1909,7 +1909,7 @@
         <v>5.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
         <v>2.52</v>
@@ -1918,10 +1918,10 @@
         <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T11" t="n">
         <v>1.54</v>
@@ -2035,13 +2035,13 @@
         <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
         <v>1.31</v>
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R12" t="n">
         <v>1.39</v>
@@ -2059,7 +2059,7 @@
         <v>3.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
         <v>2.2</v>
@@ -2071,7 +2071,7 @@
         <v>1.78</v>
       </c>
       <c r="X12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
         <v>13.5</v>
@@ -2092,7 +2092,7 @@
         <v>14.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="n">
         <v>14</v>
@@ -2158,16 +2158,16 @@
         <v>9</v>
       </c>
       <c r="H13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I13" t="n">
         <v>1.43</v>
       </c>
-      <c r="I13" t="n">
-        <v>1.44</v>
-      </c>
       <c r="J13" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K13" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L13" t="n">
         <v>1.31</v>
@@ -2182,10 +2182,10 @@
         <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R13" t="n">
         <v>1.54</v>
@@ -2200,7 +2200,7 @@
         <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W13" t="n">
         <v>1.12</v>
@@ -2212,13 +2212,13 @@
         <v>9.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AA13" t="n">
         <v>11.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC13" t="n">
         <v>11.5</v>
@@ -2242,10 +2242,10 @@
         <v>32</v>
       </c>
       <c r="AJ13" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AK13" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AL13" t="n">
         <v>110</v>
@@ -2254,7 +2254,7 @@
         <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AO13" t="n">
         <v>5.8</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G2" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="H2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I2" t="n">
         <v>4.8</v>
@@ -691,7 +691,7 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -703,49 +703,49 @@
         <v>1.44</v>
       </c>
       <c r="R2" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="S2" t="n">
         <v>2.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="V2" t="n">
         <v>1.26</v>
       </c>
       <c r="W2" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="X2" t="n">
         <v>32</v>
       </c>
       <c r="Y2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA2" t="n">
         <v>110</v>
       </c>
       <c r="AB2" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC2" t="n">
         <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF2" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
@@ -757,7 +757,7 @@
         <v>42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
         <v>15.5</v>
@@ -769,7 +769,7 @@
         <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
         <v>4.1</v>
@@ -814,10 +814,10 @@
         <v>4.3</v>
       </c>
       <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.31</v>
@@ -826,7 +826,7 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
@@ -838,10 +838,10 @@
         <v>1.66</v>
       </c>
       <c r="R3" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="S3" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T3" t="n">
         <v>1.64</v>
@@ -853,7 +853,7 @@
         <v>1.3</v>
       </c>
       <c r="W3" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X3" t="n">
         <v>20</v>
@@ -904,7 +904,7 @@
         <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AO3" t="n">
         <v>34</v>
@@ -943,13 +943,13 @@
         <v>1.95</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
         <v>4.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K4" t="n">
         <v>4.5</v>
@@ -961,28 +961,28 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S4" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="T4" t="n">
         <v>1.66</v>
       </c>
       <c r="U4" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V4" t="n">
         <v>1.26</v>
@@ -994,7 +994,7 @@
         <v>990</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1075,16 +1075,16 @@
         <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I5" t="n">
         <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="K5" t="n">
         <v>4.8</v>
@@ -1102,7 +1102,7 @@
         <v>1.07</v>
       </c>
       <c r="P5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q5" t="n">
         <v>2.08</v>
@@ -1111,7 +1111,7 @@
         <v>1.15</v>
       </c>
       <c r="S5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1123,7 +1123,7 @@
         <v>1.31</v>
       </c>
       <c r="W5" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1219,7 +1219,7 @@
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
         <v>7.8</v>
@@ -1246,7 +1246,7 @@
         <v>1.22</v>
       </c>
       <c r="S6" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1255,7 +1255,7 @@
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W6" t="n">
         <v>2.16</v>
@@ -1348,7 +1348,7 @@
         <v>17</v>
       </c>
       <c r="H7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="I7" t="n">
         <v>1.28</v>
@@ -1357,7 +1357,7 @@
         <v>6.8</v>
       </c>
       <c r="K7" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1483,13 +1483,13 @@
         <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J8" t="n">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
         <v>980</v>
@@ -1501,13 +1501,13 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>1.1</v>
+        <v>1.63</v>
       </c>
       <c r="O8" t="n">
         <v>1.06</v>
       </c>
       <c r="P8" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q8" t="n">
         <v>1.37</v>
@@ -1525,7 +1525,7 @@
         <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W8" t="n">
         <v>1.01</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G9" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H9" t="n">
         <v>3.7</v>
@@ -1642,7 +1642,7 @@
         <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q9" t="n">
         <v>2.16</v>
@@ -1654,7 +1654,7 @@
         <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U9" t="n">
         <v>2.06</v>
@@ -1663,7 +1663,7 @@
         <v>1.36</v>
       </c>
       <c r="W9" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X9" t="n">
         <v>12.5</v>
@@ -1696,7 +1696,7 @@
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI9" t="n">
         <v>60</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.57</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.58</v>
       </c>
       <c r="H10" t="n">
         <v>6.6</v>
@@ -1777,16 +1777,16 @@
         <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R10" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="T10" t="n">
         <v>1.77</v>
@@ -1801,7 +1801,7 @@
         <v>2.74</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
         <v>26</v>
@@ -1810,7 +1810,7 @@
         <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB10" t="n">
         <v>10.5</v>
@@ -1831,7 +1831,7 @@
         <v>9.6</v>
       </c>
       <c r="AH10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
         <v>70</v>
@@ -1843,16 +1843,16 @@
         <v>14.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM10" t="n">
         <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -1885,10 +1885,10 @@
         <v>1.91</v>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I11" t="n">
         <v>4.1</v>
@@ -1921,7 +1921,7 @@
         <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="T11" t="n">
         <v>1.54</v>
@@ -1933,13 +1933,13 @@
         <v>1.32</v>
       </c>
       <c r="W11" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="X11" t="n">
         <v>32</v>
       </c>
       <c r="Y11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z11" t="n">
         <v>38</v>
@@ -1948,7 +1948,7 @@
         <v>80</v>
       </c>
       <c r="AB11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
         <v>12.5</v>
@@ -1960,7 +1960,7 @@
         <v>46</v>
       </c>
       <c r="AF11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG11" t="n">
         <v>13.5</v>
@@ -1972,10 +1972,10 @@
         <v>46</v>
       </c>
       <c r="AJ11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL11" t="n">
         <v>32</v>
@@ -1984,7 +1984,7 @@
         <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO11" t="n">
         <v>32</v>
@@ -2035,7 +2035,7 @@
         <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2044,19 +2044,19 @@
         <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="R12" t="n">
         <v>1.39</v>
       </c>
       <c r="S12" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T12" t="n">
         <v>1.79</v>
@@ -2071,7 +2071,7 @@
         <v>1.78</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" t="n">
         <v>13.5</v>
@@ -2107,7 +2107,7 @@
         <v>48</v>
       </c>
       <c r="AJ12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
@@ -2119,10 +2119,10 @@
         <v>90</v>
       </c>
       <c r="AN12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H13" t="n">
         <v>1.42</v>
@@ -2173,34 +2173,34 @@
         <v>1.31</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
         <v>5.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S13" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T13" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U13" t="n">
         <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="W13" t="n">
         <v>1.12</v>
@@ -2212,13 +2212,13 @@
         <v>9.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AA13" t="n">
         <v>11.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC13" t="n">
         <v>11.5</v>
@@ -2236,7 +2236,7 @@
         <v>32</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
         <v>32</v>
@@ -2257,7 +2257,7 @@
         <v>150</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -673,16 +673,16 @@
         <v>1.76</v>
       </c>
       <c r="H2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K2" t="n">
         <v>4.6</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.24</v>
@@ -697,22 +697,22 @@
         <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q2" t="n">
         <v>1.44</v>
       </c>
       <c r="R2" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="S2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T2" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U2" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="V2" t="n">
         <v>1.26</v>
@@ -721,13 +721,13 @@
         <v>2.3</v>
       </c>
       <c r="X2" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Y2" t="n">
         <v>30</v>
       </c>
       <c r="Z2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="n">
         <v>110</v>
@@ -739,7 +739,7 @@
         <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE2" t="n">
         <v>44</v>
@@ -754,7 +754,7 @@
         <v>15.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
         <v>20</v>
@@ -769,7 +769,7 @@
         <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G3" t="n">
         <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
         <v>4.3</v>
@@ -823,7 +823,7 @@
         <v>1.31</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
         <v>5.1</v>
@@ -847,7 +847,7 @@
         <v>1.64</v>
       </c>
       <c r="U3" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V3" t="n">
         <v>1.3</v>
@@ -856,7 +856,7 @@
         <v>2.04</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y3" t="n">
         <v>20</v>
@@ -889,7 +889,7 @@
         <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ3" t="n">
         <v>22</v>
@@ -940,7 +940,7 @@
         <v>1.78</v>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -949,10 +949,10 @@
         <v>4.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.27</v>
@@ -961,16 +961,16 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R4" t="n">
         <v>1.51</v>
@@ -988,13 +988,13 @@
         <v>1.26</v>
       </c>
       <c r="W4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X4" t="n">
         <v>990</v>
       </c>
       <c r="Y4" t="n">
-        <v>990</v>
+        <v>25</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1084,13 +1084,13 @@
         <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>3.55</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1102,7 +1102,7 @@
         <v>1.07</v>
       </c>
       <c r="P5" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="Q5" t="n">
         <v>2.08</v>
@@ -1111,7 +1111,7 @@
         <v>1.15</v>
       </c>
       <c r="S5" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1207,28 +1207,28 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H6" t="n">
         <v>5.3</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
         <v>2.72</v>
@@ -1237,16 +1237,16 @@
         <v>1.06</v>
       </c>
       <c r="P6" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q6" t="n">
         <v>1.84</v>
       </c>
       <c r="R6" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S6" t="n">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1255,10 +1255,10 @@
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="W6" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="G8" t="n">
         <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="I8" t="n">
         <v>4.8</v>
@@ -1492,7 +1492,7 @@
         <v>2.88</v>
       </c>
       <c r="K8" t="n">
-        <v>980</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1510,13 +1510,13 @@
         <v>1.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="R8" t="n">
         <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="T8" t="n">
         <v>1.04</v>
@@ -1525,7 +1525,7 @@
         <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W8" t="n">
         <v>1.01</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G9" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J9" t="n">
         <v>3.45</v>
@@ -1639,7 +1639,7 @@
         <v>3.55</v>
       </c>
       <c r="O9" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P9" t="n">
         <v>1.84</v>
@@ -1660,10 +1660,10 @@
         <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W9" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X9" t="n">
         <v>12.5</v>
@@ -1684,10 +1684,10 @@
         <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF9" t="n">
         <v>13</v>
@@ -1702,7 +1702,7 @@
         <v>60</v>
       </c>
       <c r="AJ9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK9" t="n">
         <v>24</v>
@@ -1714,7 +1714,7 @@
         <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
         <v>50</v>
@@ -1786,10 +1786,10 @@
         <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T10" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U10" t="n">
         <v>2.24</v>
@@ -1819,10 +1819,10 @@
         <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE10" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="n">
         <v>10.5</v>
@@ -1885,16 +1885,16 @@
         <v>1.91</v>
       </c>
       <c r="G11" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
         <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>4.6</v>
@@ -1933,7 +1933,7 @@
         <v>1.32</v>
       </c>
       <c r="W11" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="X11" t="n">
         <v>32</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G12" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I12" t="n">
         <v>3.35</v>
       </c>
-      <c r="I12" t="n">
-        <v>3.4</v>
-      </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L12" t="n">
         <v>1.41</v>
@@ -2041,7 +2041,7 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O12" t="n">
         <v>1.32</v>
@@ -2059,16 +2059,16 @@
         <v>3.45</v>
       </c>
       <c r="T12" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V12" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W12" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X12" t="n">
         <v>15.5</v>
@@ -2092,10 +2092,10 @@
         <v>14.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
@@ -2104,7 +2104,7 @@
         <v>17.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ12" t="n">
         <v>29</v>
@@ -2116,10 +2116,10 @@
         <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO12" t="n">
         <v>34</v>
@@ -2158,10 +2158,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="H13" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I13" t="n">
         <v>1.42</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.43</v>
       </c>
       <c r="J13" t="n">
         <v>5.3</v>
@@ -2176,7 +2176,7 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O13" t="n">
         <v>1.22</v>
@@ -2194,7 +2194,7 @@
         <v>2.74</v>
       </c>
       <c r="T13" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U13" t="n">
         <v>2</v>
@@ -2212,7 +2212,7 @@
         <v>9.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA13" t="n">
         <v>11.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -667,61 +667,61 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="G2" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
         <v>4.7</v>
       </c>
       <c r="I2" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="R2" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="S2" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="T2" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="U2" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="V2" t="n">
         <v>1.26</v>
       </c>
       <c r="W2" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="X2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="n">
         <v>30</v>
@@ -733,19 +733,19 @@
         <v>110</v>
       </c>
       <c r="AB2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC2" t="n">
         <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
@@ -754,13 +754,13 @@
         <v>15.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL2" t="n">
         <v>22</v>
@@ -769,10 +769,10 @@
         <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -838,13 +838,13 @@
         <v>1.66</v>
       </c>
       <c r="R3" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="T3" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U3" t="n">
         <v>2.46</v>
@@ -889,7 +889,7 @@
         <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ3" t="n">
         <v>22</v>
@@ -904,7 +904,7 @@
         <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO3" t="n">
         <v>34</v>
@@ -937,43 +937,43 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G4" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O4" t="n">
         <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
         <v>1.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
         <v>2.56</v>
@@ -985,16 +985,16 @@
         <v>2.28</v>
       </c>
       <c r="V4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W4" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X4" t="n">
         <v>990</v>
       </c>
       <c r="Y4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1075,13 +1075,13 @@
         <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="H5" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J5" t="n">
         <v>2.9</v>
@@ -1105,7 +1105,7 @@
         <v>1.62</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R5" t="n">
         <v>1.15</v>
@@ -1114,16 +1114,16 @@
         <v>3.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U5" t="n">
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W5" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O6" t="n">
         <v>1.06</v>
       </c>
       <c r="P6" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R6" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
         <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U6" t="n">
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G8" t="n">
         <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="I8" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
@@ -1498,16 +1498,16 @@
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="O8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P8" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q8" t="n">
         <v>1.6</v>
@@ -1519,13 +1519,13 @@
         <v>1.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U8" t="n">
         <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W8" t="n">
         <v>1.01</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
@@ -1633,7 +1633,7 @@
         <v>1.45</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
         <v>3.55</v>
@@ -1654,19 +1654,19 @@
         <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W9" t="n">
         <v>1.76</v>
       </c>
       <c r="X9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
         <v>12.5</v>
@@ -1753,10 +1753,10 @@
         <v>1.57</v>
       </c>
       <c r="H10" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I10" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
         <v>4.7</v>
@@ -1768,7 +1768,7 @@
         <v>1.32</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>5.3</v>
@@ -1786,19 +1786,19 @@
         <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U10" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V10" t="n">
         <v>1.17</v>
       </c>
       <c r="W10" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="X10" t="n">
         <v>23</v>
@@ -1903,7 +1903,7 @@
         <v>1.21</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
         <v>5.4</v>
@@ -1915,13 +1915,13 @@
         <v>2.52</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R11" t="n">
         <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T11" t="n">
         <v>1.54</v>
@@ -2020,7 +2020,7 @@
         <v>2.28</v>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
@@ -2029,7 +2029,7 @@
         <v>3.35</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
         <v>3.85</v>
@@ -2041,10 +2041,10 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P12" t="n">
         <v>2.02</v>
@@ -2062,7 +2062,7 @@
         <v>1.78</v>
       </c>
       <c r="U12" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V12" t="n">
         <v>1.42</v>
@@ -2092,16 +2092,16 @@
         <v>14.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>46</v>
@@ -2110,7 +2110,7 @@
         <v>29</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
         <v>36</v>
@@ -2119,7 +2119,7 @@
         <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
         <v>34</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="H13" t="n">
         <v>1.41</v>
@@ -2176,7 +2176,7 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O13" t="n">
         <v>1.22</v>
@@ -2203,7 +2203,7 @@
         <v>3.35</v>
       </c>
       <c r="W13" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X13" t="n">
         <v>22</v>
@@ -2212,7 +2212,7 @@
         <v>9.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AA13" t="n">
         <v>11.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -667,79 +667,79 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="H2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J2" t="n">
         <v>4.7</v>
       </c>
-      <c r="I2" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.6</v>
-      </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="R2" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="S2" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="T2" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="U2" t="n">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="V2" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W2" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="X2" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y2" t="n">
         <v>34</v>
       </c>
-      <c r="Y2" t="n">
-        <v>30</v>
-      </c>
       <c r="Z2" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="n">
         <v>110</v>
       </c>
       <c r="AB2" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
         <v>46</v>
@@ -757,22 +757,22 @@
         <v>42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
         <v>22</v>
       </c>
       <c r="AM2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I3" t="n">
         <v>4.2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.3</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -820,76 +820,76 @@
         <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="S3" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="T3" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U3" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W3" t="n">
         <v>2.04</v>
       </c>
       <c r="X3" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="n">
         <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
         <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ3" t="n">
         <v>22</v>
@@ -901,13 +901,13 @@
         <v>27</v>
       </c>
       <c r="AM3" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN3" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AO3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="G4" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
         <v>4.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
         <v>4.9</v>
@@ -964,7 +964,7 @@
         <v>4.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
         <v>2.38</v>
@@ -985,13 +985,13 @@
         <v>2.28</v>
       </c>
       <c r="V4" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W4" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X4" t="n">
-        <v>990</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
         <v>24</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="G5" t="n">
-        <v>2.92</v>
+        <v>2.74</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
         <v>2.9</v>
@@ -1096,16 +1096,16 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
         <v>1.62</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R5" t="n">
         <v>1.15</v>
@@ -1120,13 +1120,13 @@
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W5" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="H6" t="n">
         <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
         <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.35</v>
@@ -1255,13 +1255,13 @@
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="W6" t="n">
-        <v>2.24</v>
+        <v>2.56</v>
       </c>
       <c r="X6" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
         <v>990</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="G7" t="n">
         <v>17</v>
@@ -1351,13 +1351,13 @@
         <v>1.25</v>
       </c>
       <c r="I7" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="J7" t="n">
         <v>6.8</v>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1483,13 +1483,13 @@
         <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="I8" t="n">
         <v>4.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
@@ -1501,7 +1501,7 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>1.64</v>
+        <v>1.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.07</v>
@@ -1633,7 +1633,7 @@
         <v>1.45</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
         <v>3.55</v>
@@ -1657,7 +1657,7 @@
         <v>1.9</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
         <v>1.38</v>
@@ -1666,7 +1666,7 @@
         <v>1.76</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
         <v>12.5</v>
@@ -1690,7 +1690,7 @@
         <v>44</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.56</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.57</v>
       </c>
       <c r="H10" t="n">
         <v>6.8</v>
@@ -1768,7 +1768,7 @@
         <v>1.32</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
         <v>5.3</v>
@@ -1780,7 +1780,7 @@
         <v>2.46</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
         <v>1.57</v>
@@ -1795,19 +1795,19 @@
         <v>2.22</v>
       </c>
       <c r="V10" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="n">
         <v>26</v>
       </c>
       <c r="Z10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA10" t="n">
         <v>180</v>
@@ -1849,10 +1849,10 @@
         <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -1909,22 +1909,22 @@
         <v>5.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
         <v>2.52</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R11" t="n">
         <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T11" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U11" t="n">
         <v>2.5</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="G12" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J12" t="n">
         <v>3.75</v>
       </c>
       <c r="K12" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
         <v>1.41</v>
@@ -2065,34 +2065,34 @@
         <v>2.24</v>
       </c>
       <c r="V12" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W12" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="X12" t="n">
         <v>15.5</v>
       </c>
       <c r="Y12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD12" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AE12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF12" t="n">
         <v>14.5</v>
@@ -2104,13 +2104,13 @@
         <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ12" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
         <v>36</v>
@@ -2119,7 +2119,7 @@
         <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO12" t="n">
         <v>34</v>
@@ -2170,7 +2170,7 @@
         <v>5.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2179,13 +2179,13 @@
         <v>5.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
         <v>2.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R13" t="n">
         <v>1.55</v>
@@ -2194,7 +2194,7 @@
         <v>2.74</v>
       </c>
       <c r="T13" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U13" t="n">
         <v>2</v>
@@ -2218,7 +2218,7 @@
         <v>11.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC13" t="n">
         <v>11.5</v>
@@ -2257,7 +2257,7 @@
         <v>150</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G2" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
         <v>5.1</v>
@@ -691,16 +691,16 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="R2" t="n">
         <v>1.91</v>
@@ -709,31 +709,31 @@
         <v>2.06</v>
       </c>
       <c r="T2" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="V2" t="n">
         <v>1.24</v>
       </c>
       <c r="W2" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="X2" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z2" t="n">
         <v>50</v>
       </c>
       <c r="AA2" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
         <v>12</v>
@@ -742,7 +742,7 @@
         <v>20</v>
       </c>
       <c r="AE2" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF2" t="n">
         <v>15</v>
@@ -760,19 +760,19 @@
         <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL2" t="n">
         <v>22</v>
       </c>
       <c r="AM2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G3" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>4.2</v>
@@ -823,10 +823,10 @@
         <v>1.31</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.21</v>
@@ -835,28 +835,28 @@
         <v>2.48</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R3" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="S3" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T3" t="n">
         <v>1.62</v>
       </c>
       <c r="U3" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="V3" t="n">
         <v>1.31</v>
       </c>
       <c r="W3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
         <v>21</v>
@@ -871,7 +871,7 @@
         <v>13</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
         <v>16</v>
@@ -904,7 +904,7 @@
         <v>65</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO3" t="n">
         <v>32</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="G4" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I4" t="n">
         <v>4.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
         <v>4.9</v>
@@ -970,7 +970,7 @@
         <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="R4" t="n">
         <v>1.53</v>
@@ -982,13 +982,13 @@
         <v>1.66</v>
       </c>
       <c r="U4" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W4" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X4" t="n">
         <v>26</v>
@@ -997,7 +997,7 @@
         <v>24</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1009,37 +1009,37 @@
         <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="G5" t="n">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
         <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.35</v>
@@ -1096,19 +1096,19 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="S5" t="n">
         <v>3.5</v>
@@ -1117,13 +1117,13 @@
         <v>1.05</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="V5" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X5" t="n">
         <v>19</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1207,46 +1207,46 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G6" t="n">
         <v>1.64</v>
       </c>
       <c r="H6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="K6" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.35</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O6" t="n">
-        <v>1.06</v>
+        <v>1.23</v>
       </c>
       <c r="P6" t="n">
         <v>1.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T6" t="n">
         <v>1.05</v>
@@ -1255,13 +1255,13 @@
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="W6" t="n">
         <v>2.56</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y6" t="n">
         <v>990</v>
@@ -1276,7 +1276,7 @@
         <v>990</v>
       </c>
       <c r="AC6" t="n">
-        <v>990</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
         <v>990</v>
@@ -1288,7 +1288,7 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>990</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="n">
         <v>990</v>
@@ -1297,7 +1297,7 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="H7" t="n">
         <v>1.25</v>
       </c>
       <c r="I7" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="J7" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="K7" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>1.35</v>
       </c>
       <c r="I8" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="J8" t="n">
         <v>3.05</v>
@@ -1501,13 +1501,13 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>1.1</v>
+        <v>1.65</v>
       </c>
       <c r="O8" t="n">
         <v>1.07</v>
       </c>
       <c r="P8" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q8" t="n">
         <v>1.6</v>
@@ -1516,7 +1516,7 @@
         <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="T8" t="n">
         <v>1.05</v>
@@ -1525,7 +1525,7 @@
         <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W8" t="n">
         <v>1.01</v>
@@ -1630,7 +1630,7 @@
         <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -1654,10 +1654,10 @@
         <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
         <v>1.38</v>
@@ -1666,13 +1666,13 @@
         <v>1.76</v>
       </c>
       <c r="X9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
         <v>70</v>
@@ -1687,7 +1687,7 @@
         <v>14.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF9" t="n">
         <v>13.5</v>
@@ -1696,10 +1696,10 @@
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
         <v>29</v>
@@ -1714,10 +1714,10 @@
         <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -1765,7 +1765,7 @@
         <v>4.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -1780,19 +1780,19 @@
         <v>2.46</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R10" t="n">
         <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T10" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U10" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="V10" t="n">
         <v>1.16</v>
@@ -1801,10 +1801,10 @@
         <v>2.78</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z10" t="n">
         <v>60</v>
@@ -1831,7 +1831,7 @@
         <v>9.6</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI10" t="n">
         <v>70</v>
@@ -1846,13 +1846,13 @@
         <v>28</v>
       </c>
       <c r="AM10" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="n">
         <v>6.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -1936,13 +1936,13 @@
         <v>1.94</v>
       </c>
       <c r="X11" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y11" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z11" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
         <v>80</v>
@@ -1951,7 +1951,7 @@
         <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
         <v>19.5</v>
@@ -1963,16 +1963,16 @@
         <v>18.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
         <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AJ11" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AK11" t="n">
         <v>22</v>
@@ -1981,7 +1981,7 @@
         <v>32</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN11" t="n">
         <v>10.5</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G12" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
@@ -2035,7 +2035,7 @@
         <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2062,19 +2062,19 @@
         <v>1.78</v>
       </c>
       <c r="U12" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
         <v>1.44</v>
       </c>
       <c r="W12" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="X12" t="n">
         <v>15.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
         <v>22</v>
@@ -2095,7 +2095,7 @@
         <v>36</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
@@ -2176,25 +2176,25 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O13" t="n">
         <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q13" t="n">
         <v>1.69</v>
       </c>
       <c r="R13" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S13" t="n">
         <v>2.74</v>
       </c>
       <c r="T13" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U13" t="n">
         <v>2</v>
@@ -2206,7 +2206,7 @@
         <v>1.11</v>
       </c>
       <c r="X13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
         <v>9.4</v>
@@ -2227,7 +2227,7 @@
         <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF13" t="n">
         <v>80</v>
@@ -2245,7 +2245,7 @@
         <v>280</v>
       </c>
       <c r="AK13" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AL13" t="n">
         <v>110</v>
@@ -2257,7 +2257,7 @@
         <v>150</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -667,31 +667,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K2" t="n">
         <v>4.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O2" t="n">
         <v>1.13</v>
@@ -700,25 +700,25 @@
         <v>3.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="R2" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S2" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T2" t="n">
         <v>1.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="V2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="X2" t="n">
         <v>42</v>
@@ -736,13 +736,13 @@
         <v>17</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF2" t="n">
         <v>15</v>
@@ -757,22 +757,22 @@
         <v>42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK2" t="n">
         <v>14.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AO2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G3" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -826,13 +826,13 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
         <v>1.63</v>
@@ -844,19 +844,19 @@
         <v>2.56</v>
       </c>
       <c r="T3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U3" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="V3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W3" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y3" t="n">
         <v>21</v>
@@ -865,7 +865,7 @@
         <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="n">
         <v>13</v>
@@ -892,7 +892,7 @@
         <v>42</v>
       </c>
       <c r="AJ3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
         <v>18</v>
@@ -904,10 +904,10 @@
         <v>65</v>
       </c>
       <c r="AN3" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -937,76 +937,76 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G4" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H4" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S4" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="T4" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="U4" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V4" t="n">
         <v>1.27</v>
       </c>
       <c r="W4" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="X4" t="n">
         <v>26</v>
       </c>
       <c r="Y4" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="Z4" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
         <v>32</v>
@@ -1021,7 +1021,7 @@
         <v>16</v>
       </c>
       <c r="AH4" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>9.6</v>
+        <v>29</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
         <v>3.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.52</v>
+        <v>2.86</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P5" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W5" t="n">
         <v>1.63</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.62</v>
-      </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G6" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="H6" t="n">
         <v>6</v>
@@ -1219,46 +1219,46 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>2.76</v>
+        <v>3.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="S6" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.05</v>
+        <v>1.99</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="V6" t="n">
         <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X6" t="n">
         <v>27</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>990</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
         <v>990</v>
@@ -1285,10 +1285,10 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>19.5</v>
       </c>
       <c r="AH6" t="n">
         <v>990</v>
@@ -1297,7 +1297,7 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="G7" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="H7" t="n">
         <v>1.25</v>
       </c>
       <c r="I7" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="J7" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K7" t="n">
         <v>8</v>
@@ -1480,16 +1480,16 @@
         <v>2.16</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1.35</v>
+        <v>1.84</v>
       </c>
       <c r="I8" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
@@ -1501,22 +1501,22 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>1.65</v>
+        <v>1.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.07</v>
       </c>
       <c r="P8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q8" t="n">
         <v>1.6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S8" t="n">
-        <v>1.61</v>
+        <v>1.05</v>
       </c>
       <c r="T8" t="n">
         <v>1.05</v>
@@ -1528,7 +1528,7 @@
         <v>1.27</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1546,7 +1546,7 @@
         <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1639,7 +1639,7 @@
         <v>3.55</v>
       </c>
       <c r="O9" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P9" t="n">
         <v>1.84</v>
@@ -1675,7 +1675,7 @@
         <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB9" t="n">
         <v>9.199999999999999</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G10" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="H10" t="n">
         <v>6.8</v>
@@ -1777,13 +1777,13 @@
         <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S10" t="n">
         <v>2.68</v>
@@ -1798,13 +1798,13 @@
         <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="X10" t="n">
         <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z10" t="n">
         <v>60</v>
@@ -1852,7 +1852,7 @@
         <v>6.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -1885,13 +1885,13 @@
         <v>1.91</v>
       </c>
       <c r="G11" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H11" t="n">
         <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
@@ -1900,91 +1900,91 @@
         <v>4.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="S11" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U11" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="V11" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W11" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="n">
         <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AF11" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI11" t="n">
         <v>42</v>
       </c>
       <c r="AJ11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="n">
         <v>32</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G12" t="n">
         <v>2.36</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.38</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
@@ -2035,16 +2035,16 @@
         <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O12" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
         <v>2.02</v>
@@ -2053,7 +2053,7 @@
         <v>1.96</v>
       </c>
       <c r="R12" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S12" t="n">
         <v>3.45</v>
@@ -2068,7 +2068,7 @@
         <v>1.44</v>
       </c>
       <c r="W12" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X12" t="n">
         <v>15.5</v>
@@ -2095,7 +2095,7 @@
         <v>36</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
@@ -2122,7 +2122,7 @@
         <v>18</v>
       </c>
       <c r="AO12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="H13" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="I13" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="J13" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K13" t="n">
         <v>5.3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.4</v>
       </c>
       <c r="L13" t="n">
         <v>1.29</v>
@@ -2176,7 +2176,7 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O13" t="n">
         <v>1.23</v>
@@ -2188,7 +2188,7 @@
         <v>1.69</v>
       </c>
       <c r="R13" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S13" t="n">
         <v>2.74</v>
@@ -2200,19 +2200,19 @@
         <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="W13" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AA13" t="n">
         <v>11.5</v>
@@ -2227,7 +2227,7 @@
         <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF13" t="n">
         <v>80</v>
@@ -2236,13 +2236,13 @@
         <v>32</v>
       </c>
       <c r="AH13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI13" t="n">
         <v>32</v>
       </c>
       <c r="AJ13" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AK13" t="n">
         <v>120</v>
@@ -2254,10 +2254,10 @@
         <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.65</v>
+        <v>1.08</v>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>790</v>
       </c>
       <c r="H2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>21</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO2" t="n">
         <v>5.2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="X2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -808,16 +808,16 @@
         <v>1.99</v>
       </c>
       <c r="H3" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="n">
         <v>4.1</v>
       </c>
-      <c r="J3" t="n">
-        <v>4</v>
-      </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.31</v>
@@ -829,37 +829,37 @@
         <v>5.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S3" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q3" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.56</v>
-      </c>
       <c r="T3" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U3" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V3" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W3" t="n">
         <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z3" t="n">
         <v>34</v>
@@ -868,19 +868,19 @@
         <v>75</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
         <v>16</v>
       </c>
       <c r="AE3" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
@@ -889,7 +889,7 @@
         <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ3" t="n">
         <v>23</v>
@@ -898,16 +898,16 @@
         <v>18</v>
       </c>
       <c r="AL3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AM3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="G4" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
         <v>4.7</v>
@@ -952,43 +952,43 @@
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O4" t="n">
         <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S4" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="T4" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U4" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V4" t="n">
         <v>1.27</v>
       </c>
       <c r="W4" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="X4" t="n">
         <v>26</v>
@@ -1021,7 +1021,7 @@
         <v>16</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1039,10 +1039,10 @@
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G5" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
@@ -1084,46 +1084,46 @@
         <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
         <v>3.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P5" t="n">
         <v>1.69</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R5" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S5" t="n">
         <v>4.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U5" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V5" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W5" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="X5" t="n">
         <v>11.5</v>
@@ -1135,7 +1135,7 @@
         <v>25</v>
       </c>
       <c r="AA5" t="n">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="AB5" t="n">
         <v>9.199999999999999</v>
@@ -1159,7 +1159,7 @@
         <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="n">
         <v>36</v>
@@ -1168,7 +1168,7 @@
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>28</v>
       </c>
       <c r="AO5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -1207,46 +1207,46 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G6" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="I6" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R6" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T6" t="n">
         <v>1.99</v>
@@ -1255,13 +1255,13 @@
         <v>1.81</v>
       </c>
       <c r="V6" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W6" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="X6" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="n">
         <v>990</v>
@@ -1276,7 +1276,7 @@
         <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
         <v>990</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>29</v>
+        <v>9.4</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="G7" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
         <v>1.25</v>
@@ -1354,10 +1354,10 @@
         <v>1.29</v>
       </c>
       <c r="J7" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1477,64 +1477,64 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="G8" t="n">
-        <v>5.2</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.84</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.07</v>
+        <v>1.35</v>
       </c>
       <c r="P8" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.6</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="S8" t="n">
-        <v>1.05</v>
+        <v>3.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.05</v>
+        <v>1.78</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="W8" t="n">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1543,10 +1543,10 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1561,7 +1561,7 @@
         <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="G9" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I9" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="J9" t="n">
         <v>3.45</v>
@@ -1630,67 +1630,67 @@
         <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R9" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T9" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U9" t="n">
         <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="W9" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
         <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC9" t="n">
         <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
@@ -1702,7 +1702,7 @@
         <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK9" t="n">
         <v>24</v>
@@ -1714,10 +1714,10 @@
         <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.56</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.57</v>
       </c>
       <c r="H10" t="n">
         <v>6.8</v>
@@ -1765,58 +1765,58 @@
         <v>4.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="R10" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="T10" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="U10" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="V10" t="n">
         <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="X10" t="n">
         <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z10" t="n">
         <v>60</v>
       </c>
       <c r="AA10" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
         <v>24</v>
@@ -1825,34 +1825,34 @@
         <v>80</v>
       </c>
       <c r="AF10" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AG10" t="n">
         <v>9.6</v>
       </c>
       <c r="AH10" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
         <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK10" t="n">
         <v>14.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AO10" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -1888,7 +1888,7 @@
         <v>2.04</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I11" t="n">
         <v>4.2</v>
@@ -1900,37 +1900,37 @@
         <v>4.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O11" t="n">
         <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
         <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S11" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T11" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U11" t="n">
         <v>2.4</v>
       </c>
       <c r="V11" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W11" t="n">
         <v>1.96</v>
@@ -2044,7 +2044,7 @@
         <v>3.95</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P12" t="n">
         <v>2.02</v>
@@ -2053,7 +2053,7 @@
         <v>1.96</v>
       </c>
       <c r="R12" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S12" t="n">
         <v>3.45</v>
@@ -2062,7 +2062,7 @@
         <v>1.78</v>
       </c>
       <c r="U12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V12" t="n">
         <v>1.44</v>
@@ -2074,7 +2074,7 @@
         <v>15.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
         <v>22</v>
@@ -2170,7 +2170,7 @@
         <v>5.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2179,10 +2179,10 @@
         <v>5.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q13" t="n">
         <v>1.69</v>
@@ -2197,7 +2197,7 @@
         <v>1.96</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V13" t="n">
         <v>3.3</v>
@@ -2242,7 +2242,7 @@
         <v>32</v>
       </c>
       <c r="AJ13" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AK13" t="n">
         <v>120</v>
@@ -2251,10 +2251,10 @@
         <v>110</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN13" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AO13" t="n">
         <v>5.8</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01:00:00</t>
+          <t>05:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Auckland FC</t>
+          <t>Western Sydney Wanderers</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Newcastle Jets</t>
+          <t>Macarthur FC</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.08</v>
+        <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>790</v>
+        <v>1.86</v>
       </c>
       <c r="H2" t="n">
-        <v>1.08</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.72</v>
+        <v>4.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="R2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="X2" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>21</v>
       </c>
-      <c r="S2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE2" t="n">
+      <c r="AK2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AO2" t="n">
         <v>34</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>5.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>05:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Western Sydney Wanderers</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="J3" t="n">
         <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.58</v>
+        <v>2.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="R3" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="T3" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="U3" t="n">
-        <v>2.6</v>
+        <v>2.32</v>
       </c>
       <c r="V3" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="X3" t="n">
         <v>26</v>
       </c>
       <c r="Y3" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AA3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AK3" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AL3" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AM3" t="n">
-        <v>60</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
         <v>9</v>
       </c>
       <c r="AO3" t="n">
-        <v>28</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>09:35:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Al-Zulfi SC</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.81</v>
+        <v>2.36</v>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>2.62</v>
       </c>
       <c r="H4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S4" t="n">
         <v>4.1</v>
       </c>
-      <c r="I4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.68</v>
-      </c>
       <c r="T4" t="n">
-        <v>1.64</v>
+        <v>1.88</v>
       </c>
       <c r="U4" t="n">
-        <v>2.32</v>
+        <v>1.93</v>
       </c>
       <c r="V4" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="W4" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="AA4" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM4" t="n">
         <v>1000</v>
       </c>
-      <c r="AB4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>580</v>
-      </c>
       <c r="AN4" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="AO4" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Zulfi SC</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.34</v>
+        <v>1.49</v>
       </c>
       <c r="G5" t="n">
-        <v>2.54</v>
+        <v>1.56</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>7.6</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O5" t="n">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.69</v>
+        <v>1.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.26</v>
+        <v>1.92</v>
       </c>
       <c r="R5" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="T5" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="U5" t="n">
-        <v>1.94</v>
+        <v>1.79</v>
       </c>
       <c r="V5" t="n">
-        <v>1.36</v>
+        <v>1.11</v>
       </c>
       <c r="W5" t="n">
-        <v>1.65</v>
+        <v>2.78</v>
       </c>
       <c r="X5" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AC5" t="n">
-        <v>7.8</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
-        <v>15.5</v>
+        <v>990</v>
       </c>
       <c r="AE5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>19.5</v>
+        <v>990</v>
       </c>
       <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK5" t="n">
         <v>65</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>30</v>
-      </c>
       <c r="AL5" t="n">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:35:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Llanelli Town</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.54</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>15</v>
       </c>
       <c r="H6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="J6" t="n">
         <v>6.4</v>
       </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.1</v>
-      </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>7.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Llanelli Town</t>
+          <t>Al Faisaly ( KSA )</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>12.5</v>
+        <v>2.38</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>2.62</v>
       </c>
       <c r="H7" t="n">
-        <v>1.25</v>
+        <v>3.15</v>
       </c>
       <c r="I7" t="n">
-        <v>1.29</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>6.4</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>7.8</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,33 +1463,33 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al Faisaly ( KSA )</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="G8" t="n">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
         <v>3.5</v>
@@ -1498,91 +1498,91 @@
         <v>1.45</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.8</v>
       </c>
-      <c r="Q8" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.63</v>
-      </c>
       <c r="X8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK8" t="n">
         <v>23</v>
       </c>
-      <c r="Y8" t="n">
-        <v>990</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.24</v>
+        <v>1.57</v>
       </c>
       <c r="G9" t="n">
-        <v>2.26</v>
+        <v>1.58</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>6.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>6.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>1.85</v>
+        <v>2.32</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.14</v>
+        <v>1.73</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="S9" t="n">
-        <v>3.95</v>
+        <v>2.88</v>
       </c>
       <c r="T9" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="V9" t="n">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="W9" t="n">
-        <v>1.79</v>
+        <v>2.72</v>
       </c>
       <c r="X9" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Z9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD9" t="n">
         <v>24</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AE9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI9" t="n">
         <v>70</v>
       </c>
-      <c r="AB9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="AJ9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN9" t="n">
         <v>7.4</v>
       </c>
-      <c r="AD9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AO9" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.55</v>
+        <v>1.91</v>
       </c>
       <c r="G10" t="n">
-        <v>1.56</v>
+        <v>2.04</v>
       </c>
       <c r="H10" t="n">
-        <v>6.8</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
-        <v>4.7</v>
+        <v>3.95</v>
       </c>
       <c r="K10" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="P10" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="R10" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
-        <v>2.84</v>
+        <v>2.44</v>
       </c>
       <c r="T10" t="n">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="U10" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="V10" t="n">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="W10" t="n">
-        <v>2.78</v>
+        <v>1.96</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y10" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>24</v>
       </c>
-      <c r="AE10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH10" t="n">
+      <c r="AK10" t="n">
         <v>21</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AL10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM10" t="n">
         <v>70</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>85</v>
-      </c>
       <c r="AN10" t="n">
-        <v>7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO10" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,123 +1868,123 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.91</v>
+        <v>2.32</v>
       </c>
       <c r="G11" t="n">
-        <v>2.04</v>
+        <v>2.34</v>
       </c>
       <c r="H11" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>5.3</v>
+        <v>3.95</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.96</v>
       </c>
       <c r="R11" t="n">
-        <v>1.6</v>
+        <v>1.39</v>
       </c>
       <c r="S11" t="n">
-        <v>2.42</v>
+        <v>3.45</v>
       </c>
       <c r="T11" t="n">
-        <v>1.58</v>
+        <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="V11" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="W11" t="n">
-        <v>1.96</v>
+        <v>1.74</v>
       </c>
       <c r="X11" t="n">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="Y11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z11" t="n">
         <v>21</v>
       </c>
-      <c r="Z11" t="n">
-        <v>34</v>
-      </c>
       <c r="AA11" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AB11" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AF11" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AJ11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK11" t="n">
         <v>24</v>
       </c>
-      <c r="AK11" t="n">
-        <v>21</v>
-      </c>
       <c r="AL11" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AM11" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="AN11" t="n">
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="AO11" t="n">
         <v>32</v>
@@ -2008,256 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.34</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>2.36</v>
+        <v>9</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>1.43</v>
       </c>
       <c r="I12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
         <v>3.25</v>
       </c>
-      <c r="J12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.44</v>
-      </c>
       <c r="W12" t="n">
-        <v>1.73</v>
+        <v>1.12</v>
       </c>
       <c r="X12" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>8.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>55</v>
+        <v>11.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE12" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.5</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AJ12" t="n">
-        <v>32</v>
+        <v>260</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="AL12" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AM12" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="AO12" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>English Premier League</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-01-01</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Sunderland</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Man City</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="G13" t="n">
-        <v>9</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X13" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>280</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>2.26</v>
       </c>
       <c r="G2" t="n">
-        <v>1.86</v>
+        <v>2.28</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>2.22</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>5.8</v>
+        <v>2.74</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>1.55</v>
       </c>
       <c r="P2" t="n">
-        <v>2.58</v>
+        <v>1.55</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.6</v>
+        <v>2.76</v>
       </c>
       <c r="R2" t="n">
-        <v>1.63</v>
+        <v>1.2</v>
       </c>
       <c r="S2" t="n">
-        <v>2.52</v>
+        <v>5.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="U2" t="n">
-        <v>2.56</v>
+        <v>1.74</v>
       </c>
       <c r="V2" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="W2" t="n">
-        <v>2.16</v>
+        <v>1.78</v>
       </c>
       <c r="X2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z2" t="n">
         <v>25</v>
       </c>
-      <c r="Y2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>36</v>
-      </c>
       <c r="AA2" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB2" t="n">
-        <v>13.5</v>
+        <v>7.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AD2" t="n">
         <v>17.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AI2" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.199999999999999</v>
+        <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="G3" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="J3" t="n">
         <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
         <v>1.32</v>
@@ -826,34 +826,34 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R3" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="S3" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U3" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="V3" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W3" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="X3" t="n">
         <v>26</v>
@@ -868,19 +868,19 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
         <v>28</v>
       </c>
       <c r="AE3" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AF3" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG3" t="n">
         <v>15.5</v>
@@ -889,10 +889,10 @@
         <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AJ3" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AK3" t="n">
         <v>32</v>
@@ -904,7 +904,7 @@
         <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO3" t="n">
         <v>600</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="G4" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
         <v>3.5</v>
@@ -961,13 +961,13 @@
         <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="n">
         <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q4" t="n">
         <v>2.26</v>
@@ -979,16 +979,16 @@
         <v>4.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="U4" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V4" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="W4" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="X4" t="n">
         <v>11.5</v>
@@ -997,40 +997,40 @@
         <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AA4" t="n">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC4" t="n">
         <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI4" t="n">
         <v>120</v>
       </c>
-      <c r="AF4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>65</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL4" t="n">
         <v>50</v>
@@ -1039,10 +1039,10 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="G5" t="n">
         <v>1.56</v>
       </c>
       <c r="H5" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I5" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J5" t="n">
         <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.41</v>
@@ -1096,31 +1096,31 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O5" t="n">
         <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="R5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S5" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
         <v>2.02</v>
       </c>
       <c r="U5" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V5" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W5" t="n">
         <v>2.78</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AD5" t="n">
         <v>990</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1210,19 +1210,19 @@
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="I6" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="J6" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="K6" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1348,46 +1348,46 @@
         <v>2.62</v>
       </c>
       <c r="H7" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
         <v>1.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S7" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="T7" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="U7" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
         <v>1.39</v>
@@ -1399,7 +1399,7 @@
         <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>990</v>
+        <v>23</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,22 +1408,22 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC7" t="n">
         <v>14</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>990</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
         <v>21</v>
@@ -1432,7 +1432,7 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK7" t="n">
         <v>1000</v>
@@ -1495,46 +1495,46 @@
         <v>3.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="O8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.34</v>
       </c>
-      <c r="P8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.36</v>
-      </c>
       <c r="S8" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="U8" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
         <v>1.36</v>
       </c>
       <c r="W8" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
         <v>24</v>
@@ -1543,25 +1543,25 @@
         <v>70</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AC8" t="n">
         <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="n">
         <v>55</v>
@@ -1573,16 +1573,16 @@
         <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -1618,16 +1618,16 @@
         <v>1.58</v>
       </c>
       <c r="H9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I9" t="n">
         <v>6.6</v>
       </c>
-      <c r="I9" t="n">
-        <v>6.8</v>
-      </c>
       <c r="J9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.34</v>
@@ -1642,13 +1642,13 @@
         <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R9" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S9" t="n">
         <v>2.88</v>
@@ -1657,7 +1657,7 @@
         <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
         <v>1.17</v>
@@ -1681,13 +1681,13 @@
         <v>9.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF9" t="n">
         <v>9.800000000000001</v>
@@ -1717,7 +1717,7 @@
         <v>7.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>4.6</v>
@@ -1771,19 +1771,19 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.19</v>
       </c>
       <c r="P10" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q10" t="n">
         <v>1.58</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S10" t="n">
         <v>2.44</v>
@@ -1792,13 +1792,13 @@
         <v>1.58</v>
       </c>
       <c r="U10" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V10" t="n">
         <v>1.32</v>
       </c>
       <c r="W10" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X10" t="n">
         <v>25</v>
@@ -1819,7 +1819,7 @@
         <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AE10" t="n">
         <v>42</v>
@@ -1831,7 +1831,7 @@
         <v>11.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI10" t="n">
         <v>42</v>
@@ -1849,7 +1849,7 @@
         <v>70</v>
       </c>
       <c r="AN10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AO10" t="n">
         <v>32</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G11" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
@@ -1900,13 +1900,13 @@
         <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
         <v>1.31</v>
@@ -1927,13 +1927,13 @@
         <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V11" t="n">
         <v>1.44</v>
       </c>
       <c r="W11" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X11" t="n">
         <v>15.5</v>
@@ -1969,7 +1969,7 @@
         <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
         <v>30</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="G12" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="H12" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="I12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J12" t="n">
         <v>5.2</v>
@@ -2035,52 +2035,52 @@
         <v>5.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R12" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="S12" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="T12" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U12" t="n">
         <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="W12" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X12" t="n">
         <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AB12" t="n">
         <v>29</v>
@@ -2107,7 +2107,7 @@
         <v>32</v>
       </c>
       <c r="AJ12" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AK12" t="n">
         <v>120</v>
@@ -2116,13 +2116,13 @@
         <v>110</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="AO12" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Western Sydney Wanderers</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.26</v>
+        <v>1.82</v>
       </c>
       <c r="G2" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U2" t="n">
         <v>2.28</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.74</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="W2" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="X2" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC2" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AD2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG2" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD2" t="n">
+      <c r="AH2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK2" t="n">
         <v>17.5</v>
       </c>
-      <c r="AE2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH2" t="n">
+      <c r="AL2" t="n">
         <v>27</v>
       </c>
-      <c r="AI2" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM2" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>09:35:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Al-Zulfi SC</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.77</v>
+        <v>2.08</v>
       </c>
       <c r="G3" t="n">
-        <v>1.84</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
         <v>4.5</v>
       </c>
-      <c r="I3" t="n">
-        <v>5.1</v>
-      </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>5.1</v>
+        <v>3.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>1.72</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>2.24</v>
       </c>
       <c r="R3" t="n">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="S3" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.68</v>
+        <v>1.97</v>
       </c>
       <c r="U3" t="n">
-        <v>2.44</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="W3" t="n">
-        <v>2.18</v>
+        <v>1.83</v>
       </c>
       <c r="X3" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>32</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE3" t="n">
         <v>90</v>
       </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>120</v>
-      </c>
       <c r="AF3" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AL3" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AM3" t="n">
         <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.199999999999999</v>
+        <v>23</v>
       </c>
       <c r="AO3" t="n">
-        <v>600</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Zulfi SC</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.3</v>
+        <v>1.69</v>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>6.2</v>
       </c>
       <c r="I4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K4" t="n">
         <v>4</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L4" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="O4" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="R4" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="T4" t="n">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="U4" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="V4" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="W4" t="n">
-        <v>1.71</v>
+        <v>2.32</v>
       </c>
       <c r="X4" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AA4" t="n">
-        <v>190</v>
+        <v>900</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="n">
-        <v>14.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="AJ4" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>26</v>
+        <v>12.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:35:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Llanelli Town</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.51</v>
+        <v>11.5</v>
       </c>
       <c r="G5" t="n">
-        <v>1.56</v>
+        <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>7.8</v>
+        <v>1.28</v>
       </c>
       <c r="I5" t="n">
-        <v>9.6</v>
+        <v>1.33</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>6.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>7.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Llanelli Town</t>
+          <t>Al Faisaly ( KSA )</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>2.48</v>
       </c>
       <c r="G6" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X6" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC6" t="n">
         <v>14</v>
       </c>
-      <c r="H6" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al Faisaly ( KSA )</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="G7" t="n">
-        <v>2.62</v>
+        <v>2.26</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
         <v>1.46</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="O7" t="n">
         <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="Q7" t="n">
         <v>2.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="S7" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T7" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="U7" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="W7" t="n">
-        <v>1.62</v>
+        <v>1.79</v>
       </c>
       <c r="X7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK7" t="n">
         <v>23</v>
       </c>
-      <c r="Y7" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.24</v>
+        <v>1.57</v>
       </c>
       <c r="G8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
         <v>2.26</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.88</v>
-      </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>1.77</v>
       </c>
       <c r="R8" t="n">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
       <c r="S8" t="n">
-        <v>3.9</v>
+        <v>2.98</v>
       </c>
       <c r="T8" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V8" t="n">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>1.79</v>
+        <v>2.72</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="Z8" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AA8" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI8" t="n">
         <v>70</v>
       </c>
-      <c r="AB8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>55</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>7.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="G9" t="n">
-        <v>1.58</v>
+        <v>2.06</v>
       </c>
       <c r="H9" t="n">
-        <v>6.4</v>
+        <v>3.65</v>
       </c>
       <c r="I9" t="n">
-        <v>6.6</v>
+        <v>4.1</v>
       </c>
       <c r="J9" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
       <c r="R9" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="S9" t="n">
-        <v>2.88</v>
+        <v>2.44</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="V9" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="W9" t="n">
-        <v>2.72</v>
+        <v>1.94</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y9" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Z9" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AA9" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AB9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN9" t="n">
         <v>9.4</v>
       </c>
-      <c r="AC9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AO9" t="n">
-        <v>95</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.92</v>
+        <v>2.42</v>
       </c>
       <c r="G10" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P10" t="n">
         <v>2.02</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.52</v>
-      </c>
       <c r="Q10" t="n">
-        <v>1.58</v>
+        <v>1.96</v>
       </c>
       <c r="R10" t="n">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="S10" t="n">
-        <v>2.44</v>
+        <v>3.45</v>
       </c>
       <c r="T10" t="n">
-        <v>1.58</v>
+        <v>1.77</v>
       </c>
       <c r="U10" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="V10" t="n">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="W10" t="n">
-        <v>1.98</v>
+        <v>1.69</v>
       </c>
       <c r="X10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z10" t="n">
         <v>21</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE10" t="n">
         <v>34</v>
       </c>
-      <c r="AA10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>42</v>
-      </c>
       <c r="AF10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
         <v>11.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK10" t="n">
         <v>24</v>
       </c>
-      <c r="AK10" t="n">
-        <v>21</v>
-      </c>
       <c r="AL10" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AM10" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>9.4</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -1873,255 +1873,120 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P11" t="n">
         <v>2.34</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="Q11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
         <v>3.2</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.44</v>
-      </c>
       <c r="W11" t="n">
-        <v>1.73</v>
+        <v>1.12</v>
       </c>
       <c r="X11" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>8.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="AB11" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="AE11" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.5</v>
+        <v>75</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AJ11" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="AK11" t="n">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="AL11" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="AM11" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>17.5</v>
+        <v>180</v>
       </c>
       <c r="AO11" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>English Premier League</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-01-01</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Sunderland</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Man City</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="G12" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2</v>
-      </c>
-      <c r="V12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X12" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>270</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>190</v>
-      </c>
-      <c r="AO12" t="n">
         <v>6.2</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G2" t="n">
         <v>1.89</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
         <v>4.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="S2" t="n">
-        <v>2.68</v>
+        <v>2.86</v>
       </c>
       <c r="T2" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U2" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W2" t="n">
         <v>2.12</v>
       </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Z2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
         <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AL2" t="n">
         <v>27</v>
       </c>
       <c r="AM2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1.17</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
         <v>3.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="P3" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="R3" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="V3" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y3" t="n">
-        <v>13.5</v>
-      </c>
       <c r="Z3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA3" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF3" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO3" t="n">
         <v>75</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H4" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.99</v>
+        <v>2.22</v>
       </c>
       <c r="U4" t="n">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="V4" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="X4" t="n">
         <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Z4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA4" t="n">
-        <v>900</v>
+        <v>230</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>990</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AE4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AL4" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN4" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="G5" t="n">
         <v>11.5</v>
       </c>
-      <c r="G5" t="n">
-        <v>14</v>
-      </c>
       <c r="H5" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="I5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="J5" t="n">
         <v>6.2</v>
       </c>
       <c r="K5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="6">
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G6" t="n">
         <v>2.72</v>
       </c>
       <c r="H6" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1234,7 +1234,7 @@
         <v>3.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P6" t="n">
         <v>1.8</v>
@@ -1255,7 +1255,7 @@
         <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W6" t="n">
         <v>1.58</v>
@@ -1273,13 +1273,13 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
         <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1288,19 +1288,19 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK6" t="n">
         <v>1000</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>75</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G7" t="n">
         <v>2.24</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.26</v>
       </c>
       <c r="H7" t="n">
         <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
         <v>3.5</v>
@@ -1360,49 +1360,49 @@
         <v>3.55</v>
       </c>
       <c r="L7" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
         <v>3.85</v>
       </c>
       <c r="T7" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U7" t="n">
         <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W7" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA7" t="n">
         <v>70</v>
@@ -1414,7 +1414,7 @@
         <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE7" t="n">
         <v>42</v>
@@ -1426,7 +1426,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
         <v>55</v>
@@ -1438,7 +1438,7 @@
         <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="n">
         <v>100</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="G8" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="H8" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="J8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K8" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L8" t="n">
         <v>1.34</v>
@@ -1507,55 +1507,55 @@
         <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="T8" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U8" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W8" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="X8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA8" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB8" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG8" t="n">
         <v>9.6</v>
@@ -1564,25 +1564,25 @@
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK8" t="n">
         <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G9" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I9" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="R9" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
-        <v>2.44</v>
+        <v>2.64</v>
       </c>
       <c r="T9" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="U9" t="n">
-        <v>2.44</v>
+        <v>2.26</v>
       </c>
       <c r="V9" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="W9" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z9" t="n">
         <v>32</v>
       </c>
       <c r="AA9" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="AB9" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
         <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AF9" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG9" t="n">
         <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO9" t="n">
         <v>42</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1756,7 +1756,7 @@
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J10" t="n">
         <v>3.7</v>
@@ -1765,7 +1765,7 @@
         <v>3.75</v>
       </c>
       <c r="L10" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -1777,22 +1777,22 @@
         <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U10" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V10" t="n">
         <v>1.46</v>
@@ -1801,40 +1801,40 @@
         <v>1.69</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
         <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC10" t="n">
         <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
         <v>34</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ10" t="n">
         <v>34</v>
@@ -1846,13 +1846,13 @@
         <v>36</v>
       </c>
       <c r="AM10" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -1882,31 +1882,31 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="G11" t="n">
         <v>8.6</v>
       </c>
-      <c r="G11" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="H11" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="I11" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="J11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K11" t="n">
         <v>5.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.3</v>
       </c>
       <c r="L11" t="n">
         <v>1.35</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O11" t="n">
         <v>1.24</v>
@@ -1930,13 +1930,13 @@
         <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="W11" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
         <v>8.800000000000001</v>
@@ -1951,7 +1951,7 @@
         <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
         <v>9.6</v>
@@ -1972,22 +1972,22 @@
         <v>32</v>
       </c>
       <c r="AJ11" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AK11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL11" t="n">
         <v>110</v>
       </c>
-      <c r="AL11" t="n">
-        <v>100</v>
-      </c>
       <c r="AM11" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN11" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AO11" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Llanelli Town</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.83</v>
+        <v>6.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1.89</v>
+        <v>6.8</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="I2" t="n">
-        <v>4.6</v>
+        <v>1.94</v>
       </c>
       <c r="J2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="S2" t="n">
+        <v>17</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y2" t="n">
         <v>4.2</v>
       </c>
-      <c r="K2" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="X2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>24</v>
-      </c>
       <c r="Z2" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>340</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL2" t="n">
         <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>27</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:35:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Faisaly ( KSA )</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Zulfi SC</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>2.68</v>
       </c>
       <c r="H3" t="n">
-        <v>1.17</v>
+        <v>3.05</v>
       </c>
       <c r="I3" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
         <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="O3" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="P3" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.46</v>
+        <v>2.14</v>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>4.7</v>
+        <v>3.95</v>
       </c>
       <c r="T3" t="n">
-        <v>2.1</v>
+        <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Y3" t="n">
         <v>11.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC3" t="n">
         <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="n">
         <v>17.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
         <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="n">
         <v>44</v>
       </c>
       <c r="AK3" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM3" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO3" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:35:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.68</v>
+        <v>2.22</v>
       </c>
       <c r="G4" t="n">
-        <v>1.71</v>
+        <v>2.24</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>6.6</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="L4" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.38</v>
+        <v>2.14</v>
       </c>
       <c r="R4" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="T4" t="n">
-        <v>2.22</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
-        <v>1.68</v>
+        <v>2.08</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="X4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y4" t="n">
         <v>13</v>
       </c>
-      <c r="Y4" t="n">
-        <v>240</v>
-      </c>
       <c r="Z4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI4" t="n">
         <v>60</v>
       </c>
-      <c r="AA4" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>990</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>140</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="AN4" t="n">
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Llanelli Town</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="X5" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC5" t="n">
         <v>9.4</v>
       </c>
-      <c r="G5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="J5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>46</v>
-      </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>15</v>
       </c>
-      <c r="AD5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AK5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO5" t="n">
         <v>110</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>420</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>160</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>4.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Faisaly ( KSA )</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.5</v>
+        <v>1.96</v>
       </c>
       <c r="G6" t="n">
-        <v>2.72</v>
+        <v>2.04</v>
       </c>
       <c r="H6" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="K6" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>1.8</v>
+        <v>2.36</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.22</v>
+        <v>1.66</v>
       </c>
       <c r="R6" t="n">
-        <v>1.3</v>
+        <v>1.56</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>2.62</v>
       </c>
       <c r="T6" t="n">
-        <v>1.82</v>
+        <v>1.62</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>2.36</v>
       </c>
       <c r="V6" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="W6" t="n">
-        <v>1.58</v>
+        <v>1.96</v>
       </c>
       <c r="X6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>24</v>
       </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>900</v>
-      </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="G7" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.7</v>
       </c>
-      <c r="I7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="L7" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="R7" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="W7" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="X7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD7" t="n">
         <v>13</v>
       </c>
-      <c r="Y7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AE7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK7" t="n">
         <v>24</v>
       </c>
-      <c r="AA7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ7" t="n">
+      <c r="AL7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO7" t="n">
         <v>27</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -1463,531 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.54</v>
+        <v>8.4</v>
       </c>
       <c r="G8" t="n">
-        <v>1.56</v>
+        <v>8.6</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>1.45</v>
       </c>
       <c r="I8" t="n">
-        <v>7.2</v>
+        <v>1.46</v>
       </c>
       <c r="J8" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="K8" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S8" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="T8" t="n">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="V8" t="n">
-        <v>1.16</v>
+        <v>3.2</v>
       </c>
       <c r="W8" t="n">
-        <v>2.8</v>
+        <v>1.13</v>
       </c>
       <c r="X8" t="n">
         <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>60</v>
+        <v>8.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.199999999999999</v>
+        <v>27</v>
       </c>
       <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AE8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH8" t="n">
         <v>24</v>
       </c>
-      <c r="AE8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>21</v>
-      </c>
       <c r="AI8" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13.5</v>
+        <v>260</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="AM8" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.4</v>
+        <v>150</v>
       </c>
       <c r="AO8" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Israeli Premier League</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-01-01</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>15:30:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Beitar Jerusalem</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Hapoel Tel Aviv</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2</v>
-      </c>
-      <c r="X9" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>English Premier League</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-01-01</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Brentford</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Tottenham</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="X10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>English Premier League</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-01-01</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Sunderland</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Man City</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="G11" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
-      <c r="V11" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X11" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>260</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>160</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,114 +653,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Llanelli Town</t>
+          <t>Al Faisaly ( KSA )</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>6.8</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.94</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.05</v>
+        <v>1.5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.17</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,16 +769,16 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>1.03</v>
       </c>
       <c r="AO2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,78 +788,78 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Faisaly ( KSA )</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="G3" t="n">
-        <v>2.68</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.47</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="X3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
         <v>22</v>
@@ -868,46 +868,46 @@
         <v>65</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI3" t="n">
         <v>55</v>
       </c>
-      <c r="AF3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>80</v>
-      </c>
       <c r="AJ3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO3" t="n">
         <v>44</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -928,55 +928,55 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P4" t="n">
         <v>2.22</v>
       </c>
-      <c r="G4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.84</v>
-      </c>
       <c r="Q4" t="n">
-        <v>2.14</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>3.95</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
         <v>1.9</v>
@@ -985,70 +985,70 @@
         <v>2.08</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="W4" t="n">
-        <v>1.8</v>
+        <v>2.84</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AA4" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AB4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF4" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AC4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AM4" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN4" t="n">
-        <v>19.5</v>
+        <v>7.2</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.59</v>
+        <v>1.95</v>
       </c>
       <c r="G5" t="n">
-        <v>1.6</v>
+        <v>2.02</v>
       </c>
       <c r="H5" t="n">
-        <v>6.4</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>6.6</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>2.58</v>
       </c>
       <c r="T5" t="n">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="U5" t="n">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="W5" t="n">
-        <v>2.66</v>
+        <v>1.98</v>
       </c>
       <c r="X5" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y5" t="n">
         <v>20</v>
       </c>
-      <c r="Y5" t="n">
-        <v>23</v>
-      </c>
       <c r="Z5" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AA5" t="n">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.6</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.4</v>
+        <v>15</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AK5" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO5" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="G6" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P6" t="n">
         <v>2.04</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.36</v>
-      </c>
       <c r="Q6" t="n">
-        <v>1.66</v>
+        <v>1.94</v>
       </c>
       <c r="R6" t="n">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="S6" t="n">
-        <v>2.62</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="U6" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="V6" t="n">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="W6" t="n">
-        <v>1.96</v>
+        <v>1.68</v>
       </c>
       <c r="X6" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z6" t="n">
         <v>20</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE6" t="n">
         <v>34</v>
       </c>
-      <c r="AA6" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>44</v>
-      </c>
       <c r="AF6" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG6" t="n">
         <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK6" t="n">
         <v>24</v>
       </c>
-      <c r="AK6" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AL6" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AM6" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AO6" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -1333,256 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.46</v>
+        <v>8.6</v>
       </c>
       <c r="G7" t="n">
-        <v>2.48</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>1.44</v>
       </c>
       <c r="I7" t="n">
-        <v>3.05</v>
+        <v>1.45</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>5.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="R7" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>2.84</v>
       </c>
       <c r="T7" t="n">
-        <v>1.77</v>
+        <v>1.99</v>
       </c>
       <c r="U7" t="n">
-        <v>2.26</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
-        <v>1.48</v>
+        <v>3.2</v>
       </c>
       <c r="W7" t="n">
-        <v>1.67</v>
+        <v>1.12</v>
       </c>
       <c r="X7" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z7" t="n">
-        <v>20</v>
+        <v>8.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="AB7" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE7" t="n">
-        <v>34</v>
+        <v>14.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>15.5</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>29</v>
       </c>
       <c r="AH7" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="AK7" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="AL7" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="AM7" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="AO7" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>English Premier League</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-01-01</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Sunderland</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Man City</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X8" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>260</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al Faisaly ( KSA )</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1.29</v>
       </c>
       <c r="H2" t="n">
-        <v>1.5</v>
+        <v>30</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,34 +691,34 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>4.4</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,34 +733,34 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>2.34</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.03</v>
+        <v>200</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="G3" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>28</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S3" t="n">
+        <v>120</v>
+      </c>
+      <c r="T3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X3" t="n">
         <v>2.4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="X3" t="n">
-        <v>12</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="AA3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.4</v>
+        <v>18</v>
       </c>
       <c r="AD3" t="n">
-        <v>14.5</v>
+        <v>310</v>
       </c>
       <c r="AE3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>13.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>990</v>
       </c>
       <c r="AH3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="G4" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="H4" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>7.4</v>
+        <v>9.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>4.8</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="P4" t="n">
-        <v>2.22</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.8</v>
+        <v>1.46</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>2.42</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2.08</v>
+        <v>2.76</v>
       </c>
       <c r="V4" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="W4" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AG4" t="n">
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL4" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AM4" t="n">
         <v>100</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="AO4" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,123 +1058,123 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="G5" t="n">
-        <v>2.02</v>
+        <v>2.52</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="P5" t="n">
-        <v>2.42</v>
+        <v>1.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.64</v>
+        <v>2.04</v>
       </c>
       <c r="R5" t="n">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>2.58</v>
+        <v>3.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="W5" t="n">
-        <v>1.98</v>
+        <v>1.66</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Y5" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>32</v>
+        <v>19.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="n">
         <v>15</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI5" t="n">
         <v>44</v>
       </c>
       <c r="AJ5" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
         <v>32</v>
@@ -1198,256 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.44</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>2.46</v>
+        <v>8.6</v>
       </c>
       <c r="H6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V6" t="n">
         <v>3.1</v>
       </c>
-      <c r="I6" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.47</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.68</v>
+        <v>1.13</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="Y6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AA6" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>48</v>
-      </c>
       <c r="AB6" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="AE6" t="n">
-        <v>34</v>
+        <v>14.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>15.5</v>
+        <v>70</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>29</v>
       </c>
       <c r="AH6" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AJ6" t="n">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="AK6" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="AL6" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AM6" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="AO6" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>English Premier League</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-01-01</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Sunderland</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Man City</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="G7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X7" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>220</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>180</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
